--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -5426,11 +5426,11 @@
   <dimension ref="A1:I1415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E725" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E734" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A812" sqref="A812"/>
+      <selection pane="bottomRight" activeCell="G785" sqref="G785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -19640,12 +19640,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="3:9">
+    <row r="754" spans="1:9">
+      <c r="A754" t="s">
+        <v>303</v>
+      </c>
+      <c r="B754" t="s">
+        <v>9</v>
+      </c>
       <c r="C754" t="s">
         <v>823</v>
       </c>
       <c r="D754" t="s">
         <v>389</v>
+      </c>
+      <c r="E754" t="s">
+        <v>318</v>
+      </c>
+      <c r="G754" t="s">
+        <v>501</v>
       </c>
       <c r="H754">
         <f>COUNTIF(Hoja2!A:A,C754)</f>
@@ -19776,12 +19788,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="3:9">
+    <row r="765" spans="1:9">
+      <c r="A765" t="s">
+        <v>303</v>
+      </c>
+      <c r="B765" t="s">
+        <v>9</v>
+      </c>
       <c r="C765" t="s">
         <v>834</v>
       </c>
       <c r="D765" t="s">
         <v>389</v>
+      </c>
+      <c r="E765" t="s">
+        <v>318</v>
+      </c>
+      <c r="F765" t="s">
+        <v>766</v>
+      </c>
+      <c r="G765" t="s">
+        <v>342</v>
       </c>
       <c r="H765">
         <f>COUNTIF(Hoja2!A:A,C765)</f>
@@ -19924,12 +19951,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="3:9">
+    <row r="777" spans="1:9">
+      <c r="A777" t="s">
+        <v>8</v>
+      </c>
+      <c r="B777" t="s">
+        <v>9</v>
+      </c>
       <c r="C777" t="s">
         <v>846</v>
       </c>
       <c r="D777" t="s">
         <v>389</v>
+      </c>
+      <c r="E777" t="s">
+        <v>283</v>
+      </c>
+      <c r="F777" t="s">
+        <v>6</v>
+      </c>
+      <c r="G777" t="s">
+        <v>342</v>
       </c>
       <c r="H777">
         <f>COUNTIF(Hoja2!A:A,C777)</f>
@@ -19988,12 +20030,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="3:9">
+    <row r="782" spans="1:9">
+      <c r="A782" t="s">
+        <v>8</v>
+      </c>
+      <c r="B782" t="s">
+        <v>9</v>
+      </c>
       <c r="C782" t="s">
         <v>851</v>
       </c>
       <c r="D782" t="s">
         <v>389</v>
+      </c>
+      <c r="E782" t="s">
+        <v>318</v>
+      </c>
+      <c r="F782" t="s">
+        <v>6</v>
+      </c>
+      <c r="G782" t="s">
+        <v>338</v>
       </c>
       <c r="H782">
         <f>COUNTIF(Hoja2!A:A,C782)</f>
@@ -20004,12 +20061,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="3:9">
+    <row r="783" spans="1:9">
+      <c r="A783" t="s">
+        <v>8</v>
+      </c>
+      <c r="B783" t="s">
+        <v>9</v>
+      </c>
       <c r="C783" t="s">
         <v>852</v>
       </c>
       <c r="D783" t="s">
         <v>389</v>
+      </c>
+      <c r="E783" t="s">
+        <v>318</v>
+      </c>
+      <c r="F783" t="s">
+        <v>6</v>
+      </c>
+      <c r="G783" t="s">
+        <v>342</v>
       </c>
       <c r="H783">
         <f>COUNTIF(Hoja2!A:A,C783)</f>
@@ -20032,12 +20104,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="3:9">
+    <row r="785" spans="1:9">
+      <c r="A785" t="s">
+        <v>303</v>
+      </c>
+      <c r="B785" t="s">
+        <v>9</v>
+      </c>
       <c r="C785" t="s">
         <v>854</v>
       </c>
       <c r="D785" t="s">
         <v>389</v>
+      </c>
+      <c r="E785" t="s">
+        <v>318</v>
+      </c>
+      <c r="F785" t="s">
+        <v>121</v>
+      </c>
+      <c r="G785" t="s">
+        <v>524</v>
       </c>
       <c r="H785">
         <f>COUNTIF(Hoja2!A:A,C785)</f>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -5471,11 +5471,11 @@
   <dimension ref="A1:J1415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E1136" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B139" sqref="B139"/>
+      <selection pane="bottomRight" activeCell="B1149" sqref="B1149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5484,6 +5484,7 @@
     <col min="2" max="2" width="19.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="28.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="21.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="17.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5953,7 +5954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" hidden="1" spans="1:10">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" hidden="1" spans="1:10">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" hidden="1" spans="1:10">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" hidden="1" spans="1:10">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" hidden="1" spans="1:10">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -6804,7 +6805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" hidden="1" spans="1:10">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" hidden="1" spans="1:5">
       <c r="A97" t="s">
         <v>68</v>
       </c>
@@ -6928,7 +6929,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" hidden="1" spans="1:5">
       <c r="A98" t="s">
         <v>68</v>
       </c>
@@ -6945,7 +6946,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" hidden="1" spans="1:5">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" hidden="1" spans="1:5">
       <c r="A100" t="s">
         <v>68</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" hidden="1" spans="1:5">
       <c r="A101" t="s">
         <v>68</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" hidden="1" spans="1:4">
       <c r="A107" t="s">
         <v>68</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" hidden="1" spans="1:4">
       <c r="A108" t="s">
         <v>68</v>
       </c>
@@ -7097,7 +7098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" hidden="1" spans="1:4">
       <c r="A109" t="s">
         <v>68</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" hidden="1" spans="1:4">
       <c r="A110" t="s">
         <v>68</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" hidden="1" spans="1:5">
       <c r="A111" t="s">
         <v>68</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" hidden="1" spans="1:5">
       <c r="A112" t="s">
         <v>68</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" hidden="1" spans="1:4">
       <c r="A113" t="s">
         <v>68</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" hidden="1" spans="1:5">
       <c r="A114" t="s">
         <v>68</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" hidden="1" spans="1:5">
       <c r="A115" t="s">
         <v>68</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" hidden="1" spans="1:4">
       <c r="A116" t="s">
         <v>68</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" hidden="1" spans="1:10">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -7541,7 +7542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" hidden="1" spans="1:10">
       <c r="A139" t="s">
         <v>68</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" hidden="1" spans="1:10">
       <c r="A188" t="s">
         <v>34</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" hidden="1" spans="1:10">
       <c r="A250" t="s">
         <v>50</v>
       </c>
@@ -11776,7 +11777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" hidden="1" spans="1:10">
       <c r="A414" t="s">
         <v>50</v>
       </c>
@@ -24788,12 +24789,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1094" hidden="1" spans="1:7">
+    <row r="1094" spans="1:7">
       <c r="A1094" t="s">
         <v>10</v>
       </c>
       <c r="B1094" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C1094" t="s">
         <v>1178</v>
@@ -24808,7 +24809,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1095" hidden="1" spans="1:7">
+    <row r="1095" spans="1:7">
       <c r="A1095" t="s">
         <v>10</v>
       </c>
@@ -24828,7 +24829,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1096" hidden="1" spans="1:7">
+    <row r="1096" spans="1:7">
       <c r="A1096" t="s">
         <v>10</v>
       </c>
@@ -24848,12 +24849,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1097" hidden="1" spans="1:7">
+    <row r="1097" spans="1:7">
       <c r="A1097" t="s">
         <v>10</v>
       </c>
       <c r="B1097" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C1097" t="s">
         <v>1183</v>
@@ -24868,7 +24869,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1098" hidden="1" spans="1:7">
+    <row r="1098" spans="1:7">
       <c r="A1098" t="s">
         <v>10</v>
       </c>
@@ -24888,7 +24889,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1099" hidden="1" spans="1:7">
+    <row r="1099" spans="1:7">
       <c r="A1099" t="s">
         <v>10</v>
       </c>
@@ -24908,7 +24909,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1100" hidden="1" spans="1:7">
+    <row r="1100" spans="1:7">
       <c r="A1100" t="s">
         <v>10</v>
       </c>
@@ -24928,7 +24929,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1101" hidden="1" spans="1:7">
+    <row r="1101" spans="1:7">
       <c r="A1101" t="s">
         <v>10</v>
       </c>
@@ -24948,7 +24949,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1102" hidden="1" spans="1:7">
+    <row r="1102" spans="1:7">
       <c r="A1102" t="s">
         <v>10</v>
       </c>
@@ -24968,7 +24969,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1103" hidden="1" spans="1:7">
+    <row r="1103" spans="1:7">
       <c r="A1103" t="s">
         <v>10</v>
       </c>
@@ -24988,7 +24989,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1104" hidden="1" spans="1:7">
+    <row r="1104" spans="1:7">
       <c r="A1104" t="s">
         <v>10</v>
       </c>
@@ -25008,7 +25009,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1105" hidden="1" spans="1:7">
+    <row r="1105" spans="1:7">
       <c r="A1105" t="s">
         <v>10</v>
       </c>
@@ -25028,7 +25029,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1106" hidden="1" spans="1:7">
+    <row r="1106" spans="1:7">
       <c r="A1106" t="s">
         <v>10</v>
       </c>
@@ -25048,7 +25049,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1107" hidden="1" spans="1:7">
+    <row r="1107" spans="1:7">
       <c r="A1107" t="s">
         <v>10</v>
       </c>
@@ -25068,7 +25069,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1108" hidden="1" spans="1:7">
+    <row r="1108" spans="1:7">
       <c r="A1108" t="s">
         <v>10</v>
       </c>
@@ -25088,7 +25089,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1109" hidden="1" spans="1:7">
+    <row r="1109" spans="1:7">
       <c r="A1109" t="s">
         <v>10</v>
       </c>
@@ -25108,7 +25109,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1110" hidden="1" spans="1:7">
+    <row r="1110" spans="1:7">
       <c r="A1110" t="s">
         <v>10</v>
       </c>
@@ -25128,7 +25129,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1111" hidden="1" spans="1:7">
+    <row r="1111" spans="1:7">
       <c r="A1111" t="s">
         <v>10</v>
       </c>
@@ -25148,7 +25149,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1112" hidden="1" spans="1:7">
+    <row r="1112" spans="1:7">
       <c r="A1112" t="s">
         <v>10</v>
       </c>
@@ -25168,7 +25169,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1113" hidden="1" spans="1:7">
+    <row r="1113" spans="1:7">
       <c r="A1113" t="s">
         <v>10</v>
       </c>
@@ -25188,7 +25189,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1114" hidden="1" spans="1:7">
+    <row r="1114" spans="1:7">
       <c r="A1114" t="s">
         <v>10</v>
       </c>
@@ -25208,7 +25209,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1115" hidden="1" spans="1:7">
+    <row r="1115" spans="1:7">
       <c r="A1115" t="s">
         <v>10</v>
       </c>
@@ -25228,7 +25229,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1116" hidden="1" spans="1:7">
+    <row r="1116" spans="1:7">
       <c r="A1116" t="s">
         <v>10</v>
       </c>
@@ -25248,7 +25249,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1117" hidden="1" spans="1:7">
+    <row r="1117" spans="1:7">
       <c r="A1117" t="s">
         <v>10</v>
       </c>
@@ -25268,7 +25269,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1118" hidden="1" spans="1:7">
+    <row r="1118" spans="1:7">
       <c r="A1118" t="s">
         <v>10</v>
       </c>
@@ -25288,7 +25289,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1119" hidden="1" spans="1:7">
+    <row r="1119" spans="1:7">
       <c r="A1119" t="s">
         <v>10</v>
       </c>
@@ -25308,7 +25309,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1120" hidden="1" spans="1:7">
+    <row r="1120" spans="1:7">
       <c r="A1120" t="s">
         <v>10</v>
       </c>
@@ -25328,7 +25329,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1121" hidden="1" spans="1:7">
+    <row r="1121" spans="1:7">
       <c r="A1121" t="s">
         <v>10</v>
       </c>
@@ -25351,7 +25352,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1122" hidden="1" spans="1:7">
+    <row r="1122" spans="1:7">
       <c r="A1122" t="s">
         <v>10</v>
       </c>
@@ -25371,7 +25372,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1123" hidden="1" spans="1:7">
+    <row r="1123" spans="1:7">
       <c r="A1123" t="s">
         <v>10</v>
       </c>
@@ -25391,7 +25392,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1124" hidden="1" spans="1:7">
+    <row r="1124" spans="1:7">
       <c r="A1124" t="s">
         <v>10</v>
       </c>
@@ -25411,7 +25412,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1125" hidden="1" spans="1:7">
+    <row r="1125" spans="1:7">
       <c r="A1125" t="s">
         <v>10</v>
       </c>
@@ -25431,7 +25432,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1126" hidden="1" spans="1:7">
+    <row r="1126" spans="1:7">
       <c r="A1126" t="s">
         <v>10</v>
       </c>
@@ -25451,7 +25452,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1127" hidden="1" spans="1:7">
+    <row r="1127" spans="1:7">
       <c r="A1127" t="s">
         <v>10</v>
       </c>
@@ -25471,7 +25472,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1128" hidden="1" spans="1:7">
+    <row r="1128" spans="1:7">
       <c r="A1128" t="s">
         <v>10</v>
       </c>
@@ -25491,7 +25492,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1129" hidden="1" spans="1:7">
+    <row r="1129" spans="1:7">
       <c r="A1129" t="s">
         <v>10</v>
       </c>
@@ -25511,7 +25512,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1130" hidden="1" spans="1:7">
+    <row r="1130" spans="1:7">
       <c r="A1130" t="s">
         <v>10</v>
       </c>
@@ -25531,7 +25532,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1131" hidden="1" spans="1:7">
+    <row r="1131" spans="1:7">
       <c r="A1131" t="s">
         <v>10</v>
       </c>
@@ -25551,7 +25552,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1132" hidden="1" spans="1:7">
+    <row r="1132" spans="1:7">
       <c r="A1132" t="s">
         <v>10</v>
       </c>
@@ -25571,7 +25572,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1133" hidden="1" spans="1:7">
+    <row r="1133" spans="1:7">
       <c r="A1133" t="s">
         <v>10</v>
       </c>
@@ -25591,7 +25592,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1134" hidden="1" spans="1:7">
+    <row r="1134" spans="1:7">
       <c r="A1134" t="s">
         <v>10</v>
       </c>
@@ -25611,7 +25612,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1135" hidden="1" spans="1:7">
+    <row r="1135" spans="1:7">
       <c r="A1135" t="s">
         <v>10</v>
       </c>
@@ -25631,7 +25632,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1136" hidden="1" spans="1:7">
+    <row r="1136" spans="1:7">
       <c r="A1136" t="s">
         <v>10</v>
       </c>
@@ -25651,7 +25652,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1137" hidden="1" spans="1:7">
+    <row r="1137" spans="1:7">
       <c r="A1137" t="s">
         <v>10</v>
       </c>
@@ -25671,7 +25672,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1138" hidden="1" spans="1:7">
+    <row r="1138" spans="1:7">
       <c r="A1138" t="s">
         <v>10</v>
       </c>
@@ -25691,7 +25692,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1139" hidden="1" spans="1:7">
+    <row r="1139" spans="1:7">
       <c r="A1139" t="s">
         <v>10</v>
       </c>
@@ -25711,7 +25712,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1140" hidden="1" spans="1:7">
+    <row r="1140" spans="1:7">
       <c r="A1140" t="s">
         <v>10</v>
       </c>
@@ -25731,7 +25732,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1141" hidden="1" spans="1:7">
+    <row r="1141" spans="1:7">
       <c r="A1141" t="s">
         <v>10</v>
       </c>
@@ -25751,7 +25752,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1142" hidden="1" spans="1:7">
+    <row r="1142" spans="1:7">
       <c r="A1142" t="s">
         <v>10</v>
       </c>
@@ -25771,7 +25772,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1143" hidden="1" spans="1:7">
+    <row r="1143" spans="1:7">
       <c r="A1143" t="s">
         <v>10</v>
       </c>
@@ -25791,7 +25792,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1144" hidden="1" spans="1:7">
+    <row r="1144" spans="1:7">
       <c r="A1144" t="s">
         <v>10</v>
       </c>
@@ -25811,7 +25812,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1145" hidden="1" spans="1:7">
+    <row r="1145" spans="1:7">
       <c r="A1145" t="s">
         <v>10</v>
       </c>
@@ -25831,7 +25832,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1146" hidden="1" spans="1:7">
+    <row r="1146" spans="1:7">
       <c r="A1146" t="s">
         <v>10</v>
       </c>
@@ -25851,7 +25852,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1147" hidden="1" spans="1:7">
+    <row r="1147" spans="1:7">
       <c r="A1147" t="s">
         <v>10</v>
       </c>
@@ -25871,7 +25872,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1148" hidden="1" spans="1:7">
+    <row r="1148" spans="1:10">
       <c r="A1148" t="s">
         <v>10</v>
       </c>
@@ -25893,8 +25894,11 @@
       <c r="G1148" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="1149" hidden="1" spans="1:7">
+      <c r="J1148" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:10">
       <c r="A1149" t="s">
         <v>10</v>
       </c>
@@ -25916,13 +25920,16 @@
       <c r="G1149" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="1150" hidden="1" spans="1:7">
+      <c r="J1149" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7">
       <c r="A1150" t="s">
         <v>10</v>
       </c>
       <c r="B1150" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C1150" t="s">
         <v>1236</v>
@@ -25940,7 +25947,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1151" hidden="1" spans="1:7">
+    <row r="1151" spans="1:7">
       <c r="A1151" t="s">
         <v>10</v>
       </c>
@@ -25960,7 +25967,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1152" hidden="1" spans="1:7">
+    <row r="1152" spans="1:7">
       <c r="A1152" t="s">
         <v>10</v>
       </c>
@@ -25980,7 +25987,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1153" hidden="1" spans="1:7">
+    <row r="1153" spans="1:7">
       <c r="A1153" t="s">
         <v>10</v>
       </c>
@@ -26000,7 +26007,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1154" hidden="1" spans="1:7">
+    <row r="1154" spans="1:7">
       <c r="A1154" t="s">
         <v>10</v>
       </c>
@@ -26020,7 +26027,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1155" hidden="1" spans="1:7">
+    <row r="1155" spans="1:7">
       <c r="A1155" t="s">
         <v>10</v>
       </c>
@@ -26040,7 +26047,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1156" hidden="1" spans="1:4">
+    <row r="1156" spans="1:4">
       <c r="A1156" t="s">
         <v>68</v>
       </c>
@@ -26054,7 +26061,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="1157" hidden="1" spans="1:7">
+    <row r="1157" spans="1:7">
       <c r="A1157" t="s">
         <v>10</v>
       </c>
@@ -26074,7 +26081,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1158" hidden="1" spans="1:7">
+    <row r="1158" spans="1:7">
       <c r="A1158" t="s">
         <v>10</v>
       </c>
@@ -26094,7 +26101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1159" hidden="1" spans="1:7">
+    <row r="1159" spans="1:7">
       <c r="A1159" t="s">
         <v>10</v>
       </c>
@@ -26114,7 +26121,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1160" hidden="1" spans="1:7">
+    <row r="1160" spans="1:7">
       <c r="A1160" t="s">
         <v>10</v>
       </c>
@@ -26134,7 +26141,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1161" hidden="1" spans="1:7">
+    <row r="1161" spans="1:7">
       <c r="A1161" t="s">
         <v>10</v>
       </c>
@@ -26154,7 +26161,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1162" hidden="1" spans="1:7">
+    <row r="1162" spans="1:7">
       <c r="A1162" t="s">
         <v>10</v>
       </c>
@@ -26174,7 +26181,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1163" hidden="1" spans="1:7">
+    <row r="1163" spans="1:7">
       <c r="A1163" t="s">
         <v>10</v>
       </c>
@@ -26194,7 +26201,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1164" hidden="1" spans="1:7">
+    <row r="1164" spans="1:7">
       <c r="A1164" t="s">
         <v>10</v>
       </c>
@@ -26214,7 +26221,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1165" hidden="1" spans="1:7">
+    <row r="1165" spans="1:7">
       <c r="A1165" t="s">
         <v>10</v>
       </c>
@@ -26234,7 +26241,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1166" hidden="1" spans="1:7">
+    <row r="1166" spans="1:7">
       <c r="A1166" t="s">
         <v>10</v>
       </c>
@@ -26254,7 +26261,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1167" hidden="1" spans="1:7">
+    <row r="1167" spans="1:7">
       <c r="A1167" t="s">
         <v>68</v>
       </c>
@@ -26274,7 +26281,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="1168" hidden="1" spans="1:7">
+    <row r="1168" spans="1:7">
       <c r="A1168" t="s">
         <v>10</v>
       </c>
@@ -26294,7 +26301,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1169" hidden="1" spans="1:7">
+    <row r="1169" spans="1:7">
       <c r="A1169" t="s">
         <v>10</v>
       </c>
@@ -26314,7 +26321,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1170" hidden="1" spans="1:7">
+    <row r="1170" spans="1:7">
       <c r="A1170" t="s">
         <v>10</v>
       </c>
@@ -26334,7 +26341,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1171" hidden="1" spans="1:7">
+    <row r="1171" spans="1:7">
       <c r="A1171" t="s">
         <v>10</v>
       </c>
@@ -26354,7 +26361,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1172" hidden="1" spans="1:7">
+    <row r="1172" spans="1:7">
       <c r="A1172" t="s">
         <v>68</v>
       </c>
@@ -26374,7 +26381,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="1173" hidden="1" spans="1:7">
+    <row r="1173" spans="1:7">
       <c r="A1173" t="s">
         <v>10</v>
       </c>
@@ -26394,12 +26401,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1174" hidden="1" spans="1:7">
+    <row r="1174" spans="1:7">
       <c r="A1174" t="s">
         <v>10</v>
       </c>
       <c r="B1174" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C1174" t="s">
         <v>1262</v>
@@ -26414,7 +26421,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1175" hidden="1" spans="1:7">
+    <row r="1175" spans="1:7">
       <c r="A1175" t="s">
         <v>10</v>
       </c>
@@ -26434,7 +26441,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1176" hidden="1" spans="1:7">
+    <row r="1176" spans="1:7">
       <c r="A1176" t="s">
         <v>10</v>
       </c>
@@ -26454,7 +26461,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1177" hidden="1" spans="1:7">
+    <row r="1177" spans="1:7">
       <c r="A1177" t="s">
         <v>10</v>
       </c>
@@ -26474,7 +26481,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1178" hidden="1" spans="1:7">
+    <row r="1178" spans="1:7">
       <c r="A1178" t="s">
         <v>10</v>
       </c>
@@ -26494,7 +26501,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1179" hidden="1" spans="1:7">
+    <row r="1179" spans="1:7">
       <c r="A1179" t="s">
         <v>10</v>
       </c>
@@ -26514,7 +26521,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1180" hidden="1" spans="1:7">
+    <row r="1180" spans="1:7">
       <c r="A1180" t="s">
         <v>10</v>
       </c>
@@ -26534,7 +26541,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1181" hidden="1" spans="1:7">
+    <row r="1181" spans="1:7">
       <c r="A1181" t="s">
         <v>10</v>
       </c>
@@ -26554,7 +26561,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1182" hidden="1" spans="1:7">
+    <row r="1182" spans="1:7">
       <c r="A1182" t="s">
         <v>10</v>
       </c>
@@ -26574,7 +26581,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1183" hidden="1" spans="1:7">
+    <row r="1183" spans="1:7">
       <c r="A1183" t="s">
         <v>10</v>
       </c>
@@ -26594,7 +26601,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1184" hidden="1" spans="1:7">
+    <row r="1184" spans="1:7">
       <c r="A1184" t="s">
         <v>10</v>
       </c>
@@ -26614,7 +26621,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1185" hidden="1" spans="1:7">
+    <row r="1185" spans="1:7">
       <c r="A1185" t="s">
         <v>10</v>
       </c>
@@ -26634,7 +26641,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1186" hidden="1" spans="1:7">
+    <row r="1186" spans="1:7">
       <c r="A1186" t="s">
         <v>10</v>
       </c>
@@ -26654,7 +26661,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1187" hidden="1" spans="1:7">
+    <row r="1187" spans="1:7">
       <c r="A1187" t="s">
         <v>10</v>
       </c>
@@ -26674,7 +26681,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1188" hidden="1" spans="1:7">
+    <row r="1188" spans="1:7">
       <c r="A1188" t="s">
         <v>10</v>
       </c>
@@ -26694,7 +26701,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1189" hidden="1" spans="1:7">
+    <row r="1189" spans="1:7">
       <c r="A1189" t="s">
         <v>10</v>
       </c>
@@ -26714,7 +26721,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1190" hidden="1" spans="1:7">
+    <row r="1190" spans="1:7">
       <c r="A1190" t="s">
         <v>10</v>
       </c>
@@ -26734,7 +26741,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1191" hidden="1" spans="1:7">
+    <row r="1191" spans="1:7">
       <c r="A1191" t="s">
         <v>10</v>
       </c>
@@ -26754,7 +26761,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1192" hidden="1" spans="1:7">
+    <row r="1192" spans="1:7">
       <c r="A1192" t="s">
         <v>10</v>
       </c>
@@ -26774,7 +26781,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1193" hidden="1" spans="1:7">
+    <row r="1193" spans="1:7">
       <c r="A1193" t="s">
         <v>10</v>
       </c>
@@ -26794,7 +26801,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1194" hidden="1" spans="1:7">
+    <row r="1194" spans="1:7">
       <c r="A1194" t="s">
         <v>10</v>
       </c>
@@ -26814,7 +26821,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1195" hidden="1" spans="1:7">
+    <row r="1195" spans="1:7">
       <c r="A1195" t="s">
         <v>10</v>
       </c>
@@ -26834,7 +26841,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1196" hidden="1" spans="1:7">
+    <row r="1196" spans="1:7">
       <c r="A1196" t="s">
         <v>10</v>
       </c>
@@ -26854,7 +26861,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1197" hidden="1" spans="1:7">
+    <row r="1197" spans="1:7">
       <c r="A1197" t="s">
         <v>10</v>
       </c>
@@ -26874,7 +26881,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1198" hidden="1" spans="1:7">
+    <row r="1198" spans="1:7">
       <c r="A1198" t="s">
         <v>10</v>
       </c>
@@ -26894,7 +26901,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1199" hidden="1" spans="1:7">
+    <row r="1199" spans="1:7">
       <c r="A1199" t="s">
         <v>10</v>
       </c>
@@ -26914,7 +26921,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1200" hidden="1" spans="1:7">
+    <row r="1200" spans="1:7">
       <c r="A1200" t="s">
         <v>10</v>
       </c>
@@ -26934,7 +26941,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1201" hidden="1" spans="1:7">
+    <row r="1201" spans="1:7">
       <c r="A1201" t="s">
         <v>10</v>
       </c>
@@ -26954,7 +26961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1202" hidden="1" spans="1:7">
+    <row r="1202" spans="1:7">
       <c r="A1202" t="s">
         <v>10</v>
       </c>
@@ -26974,7 +26981,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1203" hidden="1" spans="1:7">
+    <row r="1203" spans="1:7">
       <c r="A1203" t="s">
         <v>10</v>
       </c>
@@ -26994,7 +27001,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1204" hidden="1" spans="1:7">
+    <row r="1204" spans="1:7">
       <c r="A1204" t="s">
         <v>10</v>
       </c>
@@ -27014,7 +27021,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1205" hidden="1" spans="1:7">
+    <row r="1205" spans="1:7">
       <c r="A1205" t="s">
         <v>10</v>
       </c>
@@ -27034,7 +27041,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1206" hidden="1" spans="1:7">
+    <row r="1206" spans="1:7">
       <c r="A1206" t="s">
         <v>10</v>
       </c>
@@ -27054,7 +27061,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1207" hidden="1" spans="1:7">
+    <row r="1207" spans="1:7">
       <c r="A1207" t="s">
         <v>10</v>
       </c>
@@ -27074,7 +27081,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1208" hidden="1" spans="1:7">
+    <row r="1208" spans="1:7">
       <c r="A1208" t="s">
         <v>10</v>
       </c>
@@ -27094,7 +27101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1209" hidden="1" spans="1:7">
+    <row r="1209" spans="1:7">
       <c r="A1209" t="s">
         <v>10</v>
       </c>
@@ -27114,7 +27121,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1210" hidden="1" spans="1:7">
+    <row r="1210" spans="1:7">
       <c r="A1210" t="s">
         <v>10</v>
       </c>
@@ -27134,7 +27141,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1211" hidden="1" spans="1:7">
+    <row r="1211" spans="1:7">
       <c r="A1211" t="s">
         <v>10</v>
       </c>
@@ -27154,7 +27161,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1212" hidden="1" spans="1:7">
+    <row r="1212" spans="1:7">
       <c r="A1212" t="s">
         <v>10</v>
       </c>
@@ -27174,7 +27181,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1213" hidden="1" spans="1:7">
+    <row r="1213" spans="1:7">
       <c r="A1213" t="s">
         <v>10</v>
       </c>
@@ -27194,7 +27201,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1214" hidden="1" spans="1:7">
+    <row r="1214" spans="1:7">
       <c r="A1214" t="s">
         <v>10</v>
       </c>
@@ -27214,7 +27221,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1215" hidden="1" spans="1:7">
+    <row r="1215" spans="1:7">
       <c r="A1215" t="s">
         <v>10</v>
       </c>
@@ -27234,7 +27241,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1216" hidden="1" spans="1:7">
+    <row r="1216" spans="1:7">
       <c r="A1216" t="s">
         <v>10</v>
       </c>
@@ -27254,7 +27261,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1217" hidden="1" spans="1:7">
+    <row r="1217" spans="1:7">
       <c r="A1217" t="s">
         <v>10</v>
       </c>
@@ -27274,7 +27281,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1218" hidden="1" spans="1:7">
+    <row r="1218" spans="1:7">
       <c r="A1218" t="s">
         <v>10</v>
       </c>
@@ -27294,7 +27301,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1219" hidden="1" spans="1:7">
+    <row r="1219" spans="1:7">
       <c r="A1219" t="s">
         <v>10</v>
       </c>
@@ -27314,7 +27321,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1220" hidden="1" spans="1:7">
+    <row r="1220" spans="1:7">
       <c r="A1220" t="s">
         <v>10</v>
       </c>
@@ -27334,7 +27341,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1221" hidden="1" spans="1:7">
+    <row r="1221" spans="1:7">
       <c r="A1221" t="s">
         <v>10</v>
       </c>
@@ -27354,12 +27361,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1222" hidden="1" spans="1:7">
+    <row r="1222" spans="1:7">
       <c r="A1222" t="s">
         <v>10</v>
       </c>
       <c r="B1222" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C1222" t="s">
         <v>1310</v>
@@ -27377,7 +27384,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1223" hidden="1" spans="1:7">
+    <row r="1223" spans="1:7">
       <c r="A1223" t="s">
         <v>10</v>
       </c>
@@ -27397,7 +27404,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1224" hidden="1" spans="1:7">
+    <row r="1224" spans="1:7">
       <c r="A1224" t="s">
         <v>10</v>
       </c>
@@ -27417,7 +27424,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1225" hidden="1" spans="1:7">
+    <row r="1225" spans="1:7">
       <c r="A1225" t="s">
         <v>10</v>
       </c>
@@ -27437,7 +27444,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1226" hidden="1" spans="1:7">
+    <row r="1226" spans="1:7">
       <c r="A1226" t="s">
         <v>10</v>
       </c>
@@ -27457,7 +27464,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1227" hidden="1" spans="1:7">
+    <row r="1227" spans="1:7">
       <c r="A1227" t="s">
         <v>10</v>
       </c>
@@ -27477,7 +27484,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1228" hidden="1" spans="1:7">
+    <row r="1228" spans="1:7">
       <c r="A1228" t="s">
         <v>10</v>
       </c>
@@ -27497,7 +27504,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1229" hidden="1" spans="1:7">
+    <row r="1229" spans="1:7">
       <c r="A1229" t="s">
         <v>10</v>
       </c>
@@ -27517,7 +27524,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1230" hidden="1" spans="1:7">
+    <row r="1230" spans="1:7">
       <c r="A1230" t="s">
         <v>10</v>
       </c>
@@ -27537,7 +27544,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1231" hidden="1" spans="1:7">
+    <row r="1231" spans="1:7">
       <c r="A1231" t="s">
         <v>10</v>
       </c>
@@ -27557,7 +27564,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1232" hidden="1" spans="1:7">
+    <row r="1232" spans="1:7">
       <c r="A1232" t="s">
         <v>10</v>
       </c>
@@ -27577,7 +27584,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1233" hidden="1" spans="1:7">
+    <row r="1233" spans="1:7">
       <c r="A1233" t="s">
         <v>10</v>
       </c>
@@ -27597,7 +27604,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1234" hidden="1" spans="1:7">
+    <row r="1234" spans="1:7">
       <c r="A1234" t="s">
         <v>10</v>
       </c>
@@ -27617,7 +27624,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1235" hidden="1" spans="1:7">
+    <row r="1235" spans="1:7">
       <c r="A1235" t="s">
         <v>10</v>
       </c>
@@ -27637,7 +27644,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1236" hidden="1" spans="1:7">
+    <row r="1236" spans="1:7">
       <c r="A1236" t="s">
         <v>10</v>
       </c>
@@ -27657,7 +27664,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1237" hidden="1" spans="1:4">
+    <row r="1237" spans="1:4">
       <c r="A1237" t="s">
         <v>68</v>
       </c>
@@ -27671,7 +27678,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="1238" hidden="1" spans="1:7">
+    <row r="1238" spans="1:7">
       <c r="A1238" t="s">
         <v>10</v>
       </c>
@@ -27691,7 +27698,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1239" hidden="1" spans="1:7">
+    <row r="1239" spans="1:7">
       <c r="A1239" t="s">
         <v>10</v>
       </c>
@@ -27711,7 +27718,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1240" hidden="1" spans="1:7">
+    <row r="1240" spans="1:7">
       <c r="A1240" t="s">
         <v>10</v>
       </c>
@@ -27731,7 +27738,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1241" hidden="1" spans="1:7">
+    <row r="1241" spans="1:7">
       <c r="A1241" t="s">
         <v>10</v>
       </c>
@@ -27751,7 +27758,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1242" hidden="1" spans="1:7">
+    <row r="1242" spans="1:7">
       <c r="A1242" t="s">
         <v>10</v>
       </c>
@@ -27771,7 +27778,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1243" hidden="1" spans="1:7">
+    <row r="1243" spans="1:7">
       <c r="A1243" t="s">
         <v>10</v>
       </c>
@@ -27791,7 +27798,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1244" hidden="1" spans="1:7">
+    <row r="1244" spans="1:7">
       <c r="A1244" t="s">
         <v>10</v>
       </c>
@@ -27811,7 +27818,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1245" hidden="1" spans="1:7">
+    <row r="1245" spans="1:7">
       <c r="A1245" t="s">
         <v>10</v>
       </c>
@@ -27831,7 +27838,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1246" hidden="1" spans="1:7">
+    <row r="1246" spans="1:7">
       <c r="A1246" t="s">
         <v>10</v>
       </c>
@@ -27851,7 +27858,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1247" hidden="1" spans="1:7">
+    <row r="1247" spans="1:7">
       <c r="A1247" t="s">
         <v>10</v>
       </c>
@@ -27871,7 +27878,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1248" hidden="1" spans="1:7">
+    <row r="1248" spans="1:7">
       <c r="A1248" t="s">
         <v>10</v>
       </c>
@@ -27891,7 +27898,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1249" hidden="1" spans="1:7">
+    <row r="1249" spans="1:7">
       <c r="A1249" t="s">
         <v>10</v>
       </c>
@@ -27911,7 +27918,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1250" hidden="1" spans="1:7">
+    <row r="1250" spans="1:7">
       <c r="A1250" t="s">
         <v>10</v>
       </c>
@@ -27931,7 +27938,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1251" hidden="1" spans="1:7">
+    <row r="1251" spans="1:7">
       <c r="A1251" t="s">
         <v>10</v>
       </c>
@@ -27951,7 +27958,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1252" hidden="1" spans="1:7">
+    <row r="1252" spans="1:7">
       <c r="A1252" t="s">
         <v>10</v>
       </c>
@@ -27971,7 +27978,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1253" hidden="1" spans="1:7">
+    <row r="1253" spans="1:7">
       <c r="A1253" t="s">
         <v>10</v>
       </c>
@@ -27991,7 +27998,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1254" hidden="1" spans="1:7">
+    <row r="1254" spans="1:7">
       <c r="A1254" t="s">
         <v>10</v>
       </c>
@@ -28011,7 +28018,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1255" hidden="1" spans="1:7">
+    <row r="1255" spans="1:7">
       <c r="A1255" t="s">
         <v>10</v>
       </c>
@@ -28031,7 +28038,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1256" hidden="1" spans="1:7">
+    <row r="1256" spans="1:7">
       <c r="A1256" t="s">
         <v>10</v>
       </c>
@@ -28051,7 +28058,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1257" hidden="1" spans="1:7">
+    <row r="1257" spans="1:7">
       <c r="A1257" t="s">
         <v>10</v>
       </c>
@@ -28071,7 +28078,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1258" hidden="1" spans="1:7">
+    <row r="1258" spans="1:7">
       <c r="A1258" t="s">
         <v>10</v>
       </c>
@@ -28091,7 +28098,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1259" hidden="1" spans="1:7">
+    <row r="1259" spans="1:7">
       <c r="A1259" t="s">
         <v>10</v>
       </c>
@@ -28111,7 +28118,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1260" hidden="1" spans="1:7">
+    <row r="1260" spans="1:7">
       <c r="A1260" t="s">
         <v>10</v>
       </c>
@@ -28131,7 +28138,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1261" hidden="1" spans="1:7">
+    <row r="1261" spans="1:7">
       <c r="A1261" t="s">
         <v>10</v>
       </c>
@@ -28151,7 +28158,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1262" hidden="1" spans="1:7">
+    <row r="1262" spans="1:7">
       <c r="A1262" t="s">
         <v>10</v>
       </c>
@@ -28171,7 +28178,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1263" hidden="1" spans="1:7">
+    <row r="1263" spans="1:7">
       <c r="A1263" t="s">
         <v>10</v>
       </c>
@@ -28191,7 +28198,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1264" hidden="1" spans="1:7">
+    <row r="1264" spans="1:7">
       <c r="A1264" t="s">
         <v>10</v>
       </c>
@@ -28211,7 +28218,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1265" hidden="1" spans="1:7">
+    <row r="1265" spans="1:7">
       <c r="A1265" t="s">
         <v>10</v>
       </c>
@@ -28231,7 +28238,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1266" hidden="1" spans="1:7">
+    <row r="1266" spans="1:7">
       <c r="A1266" t="s">
         <v>10</v>
       </c>
@@ -28251,7 +28258,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1267" hidden="1" spans="1:7">
+    <row r="1267" spans="1:7">
       <c r="A1267" t="s">
         <v>10</v>
       </c>
@@ -28271,7 +28278,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1268" hidden="1" spans="1:7">
+    <row r="1268" spans="1:7">
       <c r="A1268" t="s">
         <v>10</v>
       </c>
@@ -28291,7 +28298,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1269" hidden="1" spans="1:7">
+    <row r="1269" spans="1:7">
       <c r="A1269" t="s">
         <v>10</v>
       </c>
@@ -28311,7 +28318,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1270" hidden="1" spans="1:7">
+    <row r="1270" spans="1:7">
       <c r="A1270" t="s">
         <v>10</v>
       </c>
@@ -28331,7 +28338,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1271" hidden="1" spans="1:7">
+    <row r="1271" spans="1:7">
       <c r="A1271" t="s">
         <v>10</v>
       </c>
@@ -28351,7 +28358,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1272" hidden="1" spans="1:7">
+    <row r="1272" spans="1:7">
       <c r="A1272" t="s">
         <v>10</v>
       </c>
@@ -28371,7 +28378,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1273" hidden="1" spans="1:7">
+    <row r="1273" spans="1:7">
       <c r="A1273" t="s">
         <v>10</v>
       </c>
@@ -28391,7 +28398,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1274" hidden="1" spans="1:7">
+    <row r="1274" spans="1:7">
       <c r="A1274" t="s">
         <v>10</v>
       </c>
@@ -28411,7 +28418,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1275" hidden="1" spans="1:7">
+    <row r="1275" spans="1:7">
       <c r="A1275" t="s">
         <v>10</v>
       </c>
@@ -28431,7 +28438,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1276" hidden="1" spans="1:7">
+    <row r="1276" spans="1:7">
       <c r="A1276" t="s">
         <v>10</v>
       </c>
@@ -28451,7 +28458,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1277" hidden="1" spans="1:7">
+    <row r="1277" spans="1:7">
       <c r="A1277" t="s">
         <v>10</v>
       </c>
@@ -28471,7 +28478,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1278" hidden="1" spans="1:7">
+    <row r="1278" spans="1:7">
       <c r="A1278" t="s">
         <v>10</v>
       </c>
@@ -28491,7 +28498,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1279" hidden="1" spans="1:7">
+    <row r="1279" spans="1:7">
       <c r="A1279" t="s">
         <v>10</v>
       </c>
@@ -28511,7 +28518,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1280" hidden="1" spans="1:7">
+    <row r="1280" spans="1:7">
       <c r="A1280" t="s">
         <v>10</v>
       </c>
@@ -28531,7 +28538,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1281" hidden="1" spans="1:7">
+    <row r="1281" spans="1:7">
       <c r="A1281" t="s">
         <v>10</v>
       </c>
@@ -28551,7 +28558,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1282" hidden="1" spans="1:7">
+    <row r="1282" spans="1:7">
       <c r="A1282" t="s">
         <v>10</v>
       </c>
@@ -28571,7 +28578,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1283" hidden="1" spans="1:7">
+    <row r="1283" spans="1:7">
       <c r="A1283" t="s">
         <v>10</v>
       </c>
@@ -28591,7 +28598,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1284" hidden="1" spans="1:7">
+    <row r="1284" spans="1:7">
       <c r="A1284" t="s">
         <v>10</v>
       </c>
@@ -28611,7 +28618,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1285" hidden="1" spans="1:7">
+    <row r="1285" spans="1:7">
       <c r="A1285" t="s">
         <v>10</v>
       </c>
@@ -28631,7 +28638,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1286" hidden="1" spans="1:7">
+    <row r="1286" spans="1:7">
       <c r="A1286" t="s">
         <v>10</v>
       </c>
@@ -28651,7 +28658,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1287" hidden="1" spans="1:7">
+    <row r="1287" spans="1:7">
       <c r="A1287" t="s">
         <v>10</v>
       </c>
@@ -28671,7 +28678,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1288" hidden="1" spans="1:7">
+    <row r="1288" spans="1:7">
       <c r="A1288" t="s">
         <v>10</v>
       </c>
@@ -28691,7 +28698,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1289" hidden="1" spans="1:7">
+    <row r="1289" spans="1:7">
       <c r="A1289" t="s">
         <v>10</v>
       </c>
@@ -28711,7 +28718,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1290" hidden="1" spans="1:7">
+    <row r="1290" spans="1:7">
       <c r="A1290" t="s">
         <v>10</v>
       </c>
@@ -28731,7 +28738,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1291" hidden="1" spans="1:7">
+    <row r="1291" spans="1:7">
       <c r="A1291" t="s">
         <v>10</v>
       </c>
@@ -28751,7 +28758,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1292" hidden="1" spans="1:7">
+    <row r="1292" spans="1:7">
       <c r="A1292" t="s">
         <v>10</v>
       </c>
@@ -28771,7 +28778,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1293" hidden="1" spans="1:7">
+    <row r="1293" spans="1:7">
       <c r="A1293" t="s">
         <v>68</v>
       </c>
@@ -28791,7 +28798,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1294" hidden="1" spans="1:7">
+    <row r="1294" spans="1:7">
       <c r="A1294" t="s">
         <v>10</v>
       </c>
@@ -28811,7 +28818,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1295" hidden="1" spans="1:7">
+    <row r="1295" spans="1:7">
       <c r="A1295" t="s">
         <v>10</v>
       </c>
@@ -28831,7 +28838,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1296" hidden="1" spans="1:7">
+    <row r="1296" spans="1:7">
       <c r="A1296" t="s">
         <v>10</v>
       </c>
@@ -28851,7 +28858,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1297" hidden="1" spans="1:7">
+    <row r="1297" spans="1:7">
       <c r="A1297" t="s">
         <v>10</v>
       </c>
@@ -28871,12 +28878,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1298" hidden="1" spans="1:7">
+    <row r="1298" spans="1:7">
       <c r="A1298" t="s">
         <v>313</v>
       </c>
       <c r="B1298" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C1298" t="s">
         <v>1386</v>
@@ -28894,7 +28901,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1299" hidden="1" spans="1:7">
+    <row r="1299" spans="1:7">
       <c r="A1299" t="s">
         <v>10</v>
       </c>
@@ -28914,7 +28921,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1300" hidden="1" spans="1:7">
+    <row r="1300" spans="1:7">
       <c r="A1300" t="s">
         <v>10</v>
       </c>
@@ -28934,7 +28941,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1301" hidden="1" spans="1:7">
+    <row r="1301" spans="1:7">
       <c r="A1301" t="s">
         <v>10</v>
       </c>
@@ -28954,12 +28961,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1302" hidden="1" spans="1:7">
+    <row r="1302" spans="1:7">
       <c r="A1302" t="s">
         <v>10</v>
       </c>
       <c r="B1302" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C1302" t="s">
         <v>1390</v>
@@ -28977,7 +28984,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1303" hidden="1" spans="1:7">
+    <row r="1303" spans="1:7">
       <c r="A1303" t="s">
         <v>10</v>
       </c>
@@ -28997,7 +29004,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1304" hidden="1" spans="1:7">
+    <row r="1304" spans="1:7">
       <c r="A1304" t="s">
         <v>10</v>
       </c>
@@ -29017,7 +29024,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1305" hidden="1" spans="1:7">
+    <row r="1305" spans="1:7">
       <c r="A1305" t="s">
         <v>10</v>
       </c>
@@ -29037,7 +29044,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1306" hidden="1" spans="1:7">
+    <row r="1306" spans="1:7">
       <c r="A1306" t="s">
         <v>10</v>
       </c>
@@ -29057,7 +29064,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1307" hidden="1" spans="1:7">
+    <row r="1307" spans="1:7">
       <c r="A1307" t="s">
         <v>10</v>
       </c>
@@ -29077,7 +29084,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1308" hidden="1" spans="1:7">
+    <row r="1308" spans="1:7">
       <c r="A1308" t="s">
         <v>10</v>
       </c>
@@ -29097,7 +29104,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1309" hidden="1" spans="1:7">
+    <row r="1309" spans="1:7">
       <c r="A1309" t="s">
         <v>10</v>
       </c>
@@ -29117,7 +29124,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1310" hidden="1" spans="1:7">
+    <row r="1310" spans="1:7">
       <c r="A1310" t="s">
         <v>10</v>
       </c>
@@ -29137,7 +29144,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1311" hidden="1" spans="1:7">
+    <row r="1311" spans="1:7">
       <c r="A1311" t="s">
         <v>10</v>
       </c>
@@ -29157,7 +29164,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1312" hidden="1" spans="1:7">
+    <row r="1312" spans="1:7">
       <c r="A1312" t="s">
         <v>10</v>
       </c>
@@ -29205,12 +29212,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1315" hidden="1" spans="1:7">
+    <row r="1315" spans="1:7">
       <c r="A1315" t="s">
         <v>10</v>
       </c>
       <c r="B1315" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C1315" t="s">
         <v>1403</v>
@@ -29494,7 +29501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1335" spans="1:10">
+    <row r="1335" hidden="1" spans="1:10">
       <c r="A1335" t="s">
         <v>50</v>
       </c>
@@ -29559,7 +29566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1339" spans="1:10">
+    <row r="1339" hidden="1" spans="1:10">
       <c r="A1339" t="s">
         <v>50</v>
       </c>
@@ -29585,7 +29592,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="1340" spans="1:10">
+    <row r="1340" hidden="1" spans="1:10">
       <c r="A1340" t="s">
         <v>50</v>
       </c>
@@ -29611,7 +29618,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="1341" spans="1:10">
+    <row r="1341" hidden="1" spans="1:10">
       <c r="A1341" t="s">
         <v>50</v>
       </c>
@@ -29707,7 +29714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1347" spans="1:10">
+    <row r="1347" hidden="1" spans="1:10">
       <c r="A1347" t="s">
         <v>50</v>
       </c>
@@ -29741,7 +29748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1349" spans="1:10">
+    <row r="1349" hidden="1" spans="1:10">
       <c r="A1349" t="s">
         <v>50</v>
       </c>
@@ -29761,7 +29768,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1350" spans="1:10">
+    <row r="1350" hidden="1" spans="1:10">
       <c r="A1350" t="s">
         <v>50</v>
       </c>
@@ -30932,16 +30939,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J1415">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Check"/>
-        <filter val="Eliminacion"/>
-        <filter val="Cambio"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <customFilters>
-        <customFilter operator="equal" val="View"/>
+        <customFilter operator="equal" val="Trigger"/>
       </customFilters>
     </filterColumn>
     <extLst/>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$1415</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="1530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7732" uniqueCount="1530">
   <si>
     <t>Nivel</t>
   </si>
@@ -1986,6 +1986,9 @@
     <t>spCFDFlexLeerArchivo</t>
   </si>
   <si>
+    <t>validaCorrectamente</t>
+  </si>
+  <si>
     <t>spCFDFlexQRCode</t>
   </si>
   <si>
@@ -2092,9 +2095,6 @@
   </si>
   <si>
     <t>spConciliacionBuscarAux</t>
-  </si>
-  <si>
-    <t>validaCorrectamente</t>
   </si>
   <si>
     <t>spConciliacionCalc</t>
@@ -4616,10 +4616,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -4627,6 +4627,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4638,31 +4646,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4676,6 +4661,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -4684,32 +4677,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4730,8 +4729,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4745,23 +4752,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4769,6 +4762,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4783,7 +4783,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4795,43 +4825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4843,13 +4843,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4861,79 +4867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4951,19 +4885,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4977,13 +4977,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5014,9 +5027,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5036,41 +5066,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5079,13 +5079,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5100,19 +5100,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5121,106 +5121,106 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5550,11 +5550,11 @@
   <dimension ref="A1:O1415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G702" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L578" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G624" sqref="G624"/>
+      <selection pane="bottomRight" activeCell="L732" sqref="L732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6119,7 +6119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" hidden="1" spans="1:10">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" hidden="1" spans="1:5">
       <c r="A97" t="s">
         <v>70</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" hidden="1" spans="1:5">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" hidden="1" spans="1:5">
       <c r="A99" t="s">
         <v>70</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" hidden="1" spans="1:5">
       <c r="A100" t="s">
         <v>70</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" hidden="1" spans="1:5">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" hidden="1" spans="1:4">
       <c r="A107" t="s">
         <v>70</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" hidden="1" spans="1:4">
       <c r="A108" t="s">
         <v>70</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" hidden="1" spans="1:4">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" hidden="1" spans="1:4">
       <c r="A110" t="s">
         <v>70</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" hidden="1" spans="1:5">
       <c r="A111" t="s">
         <v>70</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" hidden="1" spans="1:5">
       <c r="A112" t="s">
         <v>70</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" hidden="1" spans="1:4">
       <c r="A113" t="s">
         <v>70</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" hidden="1" spans="1:5">
       <c r="A114" t="s">
         <v>70</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" hidden="1" spans="1:5">
       <c r="A115" t="s">
         <v>70</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" hidden="1" spans="1:4">
       <c r="A116" t="s">
         <v>70</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" hidden="1" spans="1:12">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" hidden="1" spans="1:12">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" hidden="1" spans="1:10">
       <c r="A139" t="s">
         <v>70</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" hidden="1" spans="1:12">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" hidden="1" spans="1:10">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" hidden="1" spans="1:5">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" hidden="1" spans="1:4">
       <c r="A256" t="s">
         <v>300</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" hidden="1" spans="1:5">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" hidden="1" spans="1:5">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" hidden="1" spans="1:5">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" hidden="1" spans="1:6">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" hidden="1" spans="1:4">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" hidden="1" spans="1:4">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" hidden="1" spans="1:4">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" hidden="1" spans="1:5">
       <c r="A264" t="s">
         <v>310</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" hidden="1" spans="1:4">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" hidden="1" spans="1:5">
       <c r="A266" t="s">
         <v>310</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" hidden="1" spans="1:4">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" hidden="1" spans="1:4">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" hidden="1" spans="1:5">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" hidden="1" spans="1:4">
       <c r="A270" t="s">
         <v>12</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" hidden="1" spans="1:4">
       <c r="A271" t="s">
         <v>319</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" hidden="1" spans="1:4">
       <c r="A272" t="s">
         <v>12</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" hidden="1" spans="1:4">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" hidden="1" spans="1:5">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" hidden="1" spans="1:4">
       <c r="A275" t="s">
         <v>12</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" hidden="1" spans="1:5">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" hidden="1" spans="1:5">
       <c r="A277" t="s">
         <v>12</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" hidden="1" spans="1:5">
       <c r="A278" t="s">
         <v>10</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" hidden="1" spans="1:5">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" hidden="1" spans="1:5">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" hidden="1" spans="1:4">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" hidden="1" spans="1:5">
       <c r="A282" t="s">
         <v>12</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" hidden="1" spans="1:5">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" hidden="1" spans="1:5">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" hidden="1" spans="1:5">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" hidden="1" spans="1:5">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" hidden="1" spans="1:5">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" hidden="1" spans="1:5">
       <c r="A288" t="s">
         <v>12</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" hidden="1" spans="1:5">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" hidden="1" spans="1:5">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" hidden="1" spans="1:5">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" hidden="1" spans="1:5">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" hidden="1" spans="1:5">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" hidden="1" spans="1:5">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" hidden="1" spans="1:5">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" hidden="1" spans="1:5">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" hidden="1" spans="1:5">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" hidden="1" spans="1:5">
       <c r="A299" t="s">
         <v>12</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" hidden="1" spans="1:5">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" hidden="1" spans="1:7">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" hidden="1" spans="1:7">
       <c r="A302" t="s">
         <v>12</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" hidden="1" spans="1:7">
       <c r="A303" t="s">
         <v>12</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" hidden="1" spans="1:7">
       <c r="A304" t="s">
         <v>12</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" hidden="1" spans="1:7">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" hidden="1" spans="1:7">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" hidden="1" spans="1:7">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" hidden="1" spans="1:7">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" hidden="1" spans="1:7">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" hidden="1" spans="1:7">
       <c r="A310" t="s">
         <v>12</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" hidden="1" spans="1:7">
       <c r="A311" t="s">
         <v>300</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" hidden="1" spans="1:7">
       <c r="A312" t="s">
         <v>12</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" hidden="1" spans="1:7">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" hidden="1" spans="1:7">
       <c r="A314" t="s">
         <v>12</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" hidden="1" spans="1:7">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" hidden="1" spans="1:7">
       <c r="A316" t="s">
         <v>12</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" hidden="1" spans="1:7">
       <c r="A317" t="s">
         <v>12</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="318" spans="3:4">
+    <row r="318" hidden="1" spans="3:4">
       <c r="C318" t="s">
         <v>372</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" hidden="1" spans="1:12">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" hidden="1" spans="1:12">
       <c r="A349" t="s">
         <v>12</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" hidden="1" spans="1:13">
       <c r="A351" t="s">
         <v>12</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" hidden="1" spans="1:12">
       <c r="A352" t="s">
         <v>12</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" hidden="1" spans="1:8">
       <c r="A353" t="s">
         <v>12</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" hidden="1" spans="1:8">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" hidden="1" spans="1:8">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" hidden="1" spans="1:8">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" hidden="1" spans="1:12">
       <c r="A359" t="s">
         <v>12</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" hidden="1" spans="1:12">
       <c r="A360" t="s">
         <v>12</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" hidden="1" spans="1:12">
       <c r="A361" t="s">
         <v>12</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" hidden="1" spans="1:10">
       <c r="A414" t="s">
         <v>10</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="458" spans="1:12">
+    <row r="458" hidden="1" spans="1:12">
       <c r="A458" t="s">
         <v>12</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" hidden="1" spans="1:8">
       <c r="A459" t="s">
         <v>70</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" hidden="1" spans="1:8">
       <c r="A462" t="s">
         <v>12</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" hidden="1" spans="1:8">
       <c r="A464" t="s">
         <v>70</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" hidden="1" spans="1:8">
       <c r="A465" t="s">
         <v>70</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:12">
+    <row r="466" hidden="1" spans="1:12">
       <c r="A466" t="s">
         <v>12</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" hidden="1" spans="1:12">
       <c r="A467" t="s">
         <v>12</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" hidden="1" spans="1:12">
       <c r="A469" t="s">
         <v>12</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" hidden="1" spans="1:12">
       <c r="A470" t="s">
         <v>12</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="471" spans="1:12">
+    <row r="471" hidden="1" spans="1:12">
       <c r="A471" t="s">
         <v>12</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" hidden="1" spans="1:12">
       <c r="A473" t="s">
         <v>319</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" hidden="1" spans="1:12">
       <c r="A474" t="s">
         <v>12</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" hidden="1" spans="1:12">
       <c r="A476" t="s">
         <v>12</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" hidden="1" spans="1:9">
       <c r="A477" t="s">
         <v>542</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" hidden="1" spans="1:9">
       <c r="A478" t="s">
         <v>319</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" hidden="1" spans="1:12">
       <c r="A479" t="s">
         <v>12</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="482" spans="1:12">
+    <row r="482" hidden="1" spans="1:12">
       <c r="A482" t="s">
         <v>12</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="483" spans="1:12">
+    <row r="483" hidden="1" spans="1:12">
       <c r="A483" t="s">
         <v>12</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="484" spans="1:12">
+    <row r="484" hidden="1" spans="1:12">
       <c r="A484" t="s">
         <v>12</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" hidden="1" spans="1:12">
       <c r="A488" t="s">
         <v>12</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="489" spans="1:12">
+    <row r="489" hidden="1" spans="1:12">
       <c r="A489" t="s">
         <v>12</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" hidden="1" spans="1:8">
       <c r="A491" t="s">
         <v>12</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" hidden="1" spans="1:9">
       <c r="A493" t="s">
         <v>300</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" hidden="1" spans="1:8">
       <c r="A494" t="s">
         <v>12</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" hidden="1" spans="1:8">
       <c r="A495" t="s">
         <v>70</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" hidden="1" spans="1:8">
       <c r="A496" t="s">
         <v>70</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" hidden="1" spans="1:12">
       <c r="A497" t="s">
         <v>12</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="499" spans="1:12">
+    <row r="499" hidden="1" spans="1:12">
       <c r="A499" t="s">
         <v>12</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="500" spans="1:12">
+    <row r="500" hidden="1" spans="1:12">
       <c r="A500" t="s">
         <v>12</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" hidden="1" spans="1:12">
       <c r="A501" t="s">
         <v>12</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" hidden="1" spans="1:12">
       <c r="A502" t="s">
         <v>12</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" hidden="1" spans="1:12">
       <c r="A503" t="s">
         <v>12</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" hidden="1" spans="1:12">
       <c r="A504" t="s">
         <v>12</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" hidden="1" spans="1:12">
       <c r="A505" t="s">
         <v>12</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" hidden="1" spans="1:12">
       <c r="A506" t="s">
         <v>12</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" hidden="1" spans="1:12">
       <c r="A507" t="s">
         <v>12</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" hidden="1" spans="1:12">
       <c r="A508" t="s">
         <v>12</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" hidden="1" spans="1:12">
       <c r="A509" t="s">
         <v>12</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" hidden="1" spans="1:12">
       <c r="A510" t="s">
         <v>12</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" hidden="1" spans="1:12">
       <c r="A511" t="s">
         <v>12</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" hidden="1" spans="1:12">
       <c r="A512" t="s">
         <v>12</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="513" spans="1:12">
+    <row r="513" hidden="1" spans="1:12">
       <c r="A513" t="s">
         <v>12</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="516" spans="1:12">
+    <row r="516" hidden="1" spans="1:12">
       <c r="A516" t="s">
         <v>12</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" hidden="1" spans="1:9">
       <c r="A517" t="s">
         <v>300</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" hidden="1" spans="1:9">
       <c r="A518" t="s">
         <v>300</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" hidden="1" spans="1:8">
       <c r="A519" t="s">
         <v>10</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" hidden="1" spans="1:9">
       <c r="A520" t="s">
         <v>70</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" hidden="1" spans="1:9">
       <c r="A521" t="s">
         <v>12</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:12">
+    <row r="522" hidden="1" spans="1:12">
       <c r="A522" t="s">
         <v>12</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="525" spans="1:12">
+    <row r="525" hidden="1" spans="1:12">
       <c r="A525" t="s">
         <v>12</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" hidden="1" spans="1:8">
       <c r="A526" t="s">
         <v>10</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" hidden="1" spans="1:8">
       <c r="A528" t="s">
         <v>12</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" hidden="1" spans="1:8">
       <c r="A529" t="s">
         <v>12</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" hidden="1" spans="1:8">
       <c r="A530" t="s">
         <v>12</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" hidden="1" spans="1:8">
       <c r="A531" t="s">
         <v>12</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" hidden="1" spans="1:8">
       <c r="A532" t="s">
         <v>12</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:14">
+    <row r="533" hidden="1" spans="1:14">
       <c r="A533" t="s">
         <v>12</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="534" spans="1:13">
+    <row r="534" hidden="1" spans="1:13">
       <c r="A534" t="s">
         <v>12</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="535" spans="1:12">
+    <row r="535" hidden="1" spans="1:12">
       <c r="A535" t="s">
         <v>12</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" hidden="1" spans="1:8">
       <c r="A536" t="s">
         <v>12</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:15">
+    <row r="537" hidden="1" spans="1:15">
       <c r="A537" t="s">
         <v>319</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="541" spans="1:12">
+    <row r="541" hidden="1" spans="1:12">
       <c r="A541" t="s">
         <v>12</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" hidden="1" spans="1:9">
       <c r="A542" t="s">
         <v>300</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:12">
+    <row r="543" hidden="1" spans="1:12">
       <c r="A543" t="s">
         <v>12</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="545" spans="1:12">
+    <row r="545" hidden="1" spans="1:12">
       <c r="A545" t="s">
         <v>12</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="547" spans="1:12">
+    <row r="547" hidden="1" spans="1:12">
       <c r="A547" t="s">
         <v>12</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" hidden="1" spans="1:8">
       <c r="A548" t="s">
         <v>12</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:12">
+    <row r="549" hidden="1" spans="1:12">
       <c r="A549" t="s">
         <v>12</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" hidden="1" spans="1:9">
       <c r="A550" t="s">
         <v>319</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="554" spans="1:12">
+    <row r="554" hidden="1" spans="1:12">
       <c r="A554" t="s">
         <v>12</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="555" spans="1:12">
+    <row r="555" hidden="1" spans="1:12">
       <c r="A555" t="s">
         <v>12</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" hidden="1" spans="1:8">
       <c r="A556" t="s">
         <v>12</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="558" spans="1:12">
+    <row r="558" hidden="1" spans="1:12">
       <c r="A558" t="s">
         <v>12</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="559" spans="1:12">
+    <row r="559" hidden="1" spans="1:12">
       <c r="A559" t="s">
         <v>12</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="560" spans="3:9">
+    <row r="560" spans="3:14">
       <c r="C560" t="s">
         <v>641</v>
       </c>
@@ -15705,8 +15705,17 @@
         <f>COUNTIF(Hoja2!B:B,C560)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="3:9">
+      <c r="L560" t="s">
+        <v>230</v>
+      </c>
+      <c r="M560" t="s">
+        <v>617</v>
+      </c>
+      <c r="N560" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="561" spans="3:12">
       <c r="C561" t="s">
         <v>642</v>
       </c>
@@ -15721,8 +15730,11 @@
         <f>COUNTIF(Hoja2!B:B,C561)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="3:9">
+      <c r="L561" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="562" spans="3:12">
       <c r="C562" t="s">
         <v>643</v>
       </c>
@@ -15737,8 +15749,11 @@
         <f>COUNTIF(Hoja2!B:B,C562)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="563" spans="3:9">
+      <c r="L562" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="563" spans="3:13">
       <c r="C563" t="s">
         <v>644</v>
       </c>
@@ -15753,8 +15768,14 @@
         <f>COUNTIF(Hoja2!B:B,C563)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="3:9">
+      <c r="L563" t="s">
+        <v>617</v>
+      </c>
+      <c r="M563" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="564" spans="3:12">
       <c r="C564" t="s">
         <v>645</v>
       </c>
@@ -15769,8 +15790,11 @@
         <f>COUNTIF(Hoja2!B:B,C564)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="565" spans="3:9">
+      <c r="L564" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="565" spans="3:12">
       <c r="C565" t="s">
         <v>646</v>
       </c>
@@ -15785,8 +15809,11 @@
         <f>COUNTIF(Hoja2!B:B,C565)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="3:9">
+      <c r="L565" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="566" spans="3:13">
       <c r="C566" t="s">
         <v>647</v>
       </c>
@@ -15801,8 +15828,14 @@
         <f>COUNTIF(Hoja2!B:B,C566)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="3:9">
+      <c r="L566" t="s">
+        <v>616</v>
+      </c>
+      <c r="M566" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="567" spans="3:12">
       <c r="C567" t="s">
         <v>648</v>
       </c>
@@ -15817,8 +15850,11 @@
         <f>COUNTIF(Hoja2!B:B,C567)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="3:9">
+      <c r="L567" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="568" spans="3:12">
       <c r="C568" t="s">
         <v>649</v>
       </c>
@@ -15833,8 +15869,11 @@
         <f>COUNTIF(Hoja2!B:B,C568)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="3:9">
+      <c r="L568" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="569" spans="3:13">
       <c r="C569" t="s">
         <v>650</v>
       </c>
@@ -15849,8 +15888,14 @@
         <f>COUNTIF(Hoja2!B:B,C569)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="3:9">
+      <c r="L569" t="s">
+        <v>617</v>
+      </c>
+      <c r="M569" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="570" spans="3:14">
       <c r="C570" t="s">
         <v>651</v>
       </c>
@@ -15865,8 +15910,17 @@
         <f>COUNTIF(Hoja2!B:B,C570)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="571" spans="3:9">
+      <c r="L570" t="s">
+        <v>617</v>
+      </c>
+      <c r="M570" t="s">
+        <v>616</v>
+      </c>
+      <c r="N570" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="571" spans="3:13">
       <c r="C571" t="s">
         <v>652</v>
       </c>
@@ -15881,8 +15935,14 @@
         <f>COUNTIF(Hoja2!B:B,C571)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="3:9">
+      <c r="L571" t="s">
+        <v>347</v>
+      </c>
+      <c r="M571" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="572" spans="3:12">
       <c r="C572" t="s">
         <v>653</v>
       </c>
@@ -15897,8 +15957,11 @@
         <f>COUNTIF(Hoja2!B:B,C572)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="573" spans="3:9">
+      <c r="L572" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="573" spans="3:12">
       <c r="C573" t="s">
         <v>654</v>
       </c>
@@ -15913,10 +15976,13 @@
         <f>COUNTIF(Hoja2!B:B,C573)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="3:9">
+      <c r="L573" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="574" spans="3:13">
       <c r="C574" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D574" t="s">
         <v>405</v>
@@ -15929,10 +15995,16 @@
         <f>COUNTIF(Hoja2!B:B,C574)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="3:9">
+      <c r="L574" t="s">
+        <v>347</v>
+      </c>
+      <c r="M574" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="575" spans="3:13">
       <c r="C575" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D575" t="s">
         <v>405</v>
@@ -15945,10 +16017,16 @@
         <f>COUNTIF(Hoja2!B:B,C575)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="3:9">
+      <c r="L575" t="s">
+        <v>347</v>
+      </c>
+      <c r="M575" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="576" spans="3:13">
       <c r="C576" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D576" t="s">
         <v>405</v>
@@ -15961,10 +16039,16 @@
         <f>COUNTIF(Hoja2!B:B,C576)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="3:9">
+      <c r="L576" t="s">
+        <v>616</v>
+      </c>
+      <c r="M576" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="577" spans="3:14">
       <c r="C577" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D577" t="s">
         <v>405</v>
@@ -15977,10 +16061,19 @@
         <f>COUNTIF(Hoja2!B:B,C577)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="3:9">
+      <c r="L577" t="s">
+        <v>347</v>
+      </c>
+      <c r="M577" t="s">
+        <v>625</v>
+      </c>
+      <c r="N577" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="578" spans="3:12">
       <c r="C578" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D578" t="s">
         <v>405</v>
@@ -15993,10 +16086,13 @@
         <f>COUNTIF(Hoja2!B:B,C578)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="3:9">
+      <c r="L578" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="579" spans="3:12">
       <c r="C579" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D579" t="s">
         <v>405</v>
@@ -16009,10 +16105,13 @@
         <f>COUNTIF(Hoja2!B:B,C579)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="3:9">
+      <c r="L579" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="580" spans="3:13">
       <c r="C580" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D580" t="s">
         <v>405</v>
@@ -16025,10 +16124,16 @@
         <f>COUNTIF(Hoja2!B:B,C580)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="3:9">
+      <c r="L580" t="s">
+        <v>617</v>
+      </c>
+      <c r="M580" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="581" spans="3:13">
       <c r="C581" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D581" t="s">
         <v>405</v>
@@ -16041,10 +16146,16 @@
         <f>COUNTIF(Hoja2!B:B,C581)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="3:9">
+      <c r="L581" t="s">
+        <v>617</v>
+      </c>
+      <c r="M581" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="582" spans="3:12">
       <c r="C582" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D582" t="s">
         <v>405</v>
@@ -16057,10 +16168,13 @@
         <f>COUNTIF(Hoja2!B:B,C582)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="583" spans="3:9">
+      <c r="L582" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="583" spans="3:12">
       <c r="C583" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D583" t="s">
         <v>405</v>
@@ -16073,10 +16187,13 @@
         <f>COUNTIF(Hoja2!B:B,C583)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="584" spans="3:9">
+      <c r="L583" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="584" spans="3:13">
       <c r="C584" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D584" t="s">
         <v>405</v>
@@ -16089,10 +16206,16 @@
         <f>COUNTIF(Hoja2!B:B,C584)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="585" spans="3:9">
+      <c r="L584" t="s">
+        <v>617</v>
+      </c>
+      <c r="M584" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="585" spans="3:12">
       <c r="C585" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D585" t="s">
         <v>405</v>
@@ -16105,8 +16228,11 @@
         <f>COUNTIF(Hoja2!B:B,C585)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="586" spans="1:12">
+      <c r="L585" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="586" hidden="1" spans="1:12">
       <c r="A586" t="s">
         <v>12</v>
       </c>
@@ -16114,7 +16240,7 @@
         <v>13</v>
       </c>
       <c r="C586" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D586" t="s">
         <v>405</v>
@@ -16136,7 +16262,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="587" spans="1:12">
+    <row r="587" hidden="1" spans="1:12">
       <c r="A587" t="s">
         <v>12</v>
       </c>
@@ -16144,7 +16270,7 @@
         <v>13</v>
       </c>
       <c r="C587" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D587" t="s">
         <v>405</v>
@@ -16163,7 +16289,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="588" spans="1:12">
+    <row r="588" hidden="1" spans="1:12">
       <c r="A588" t="s">
         <v>12</v>
       </c>
@@ -16171,7 +16297,7 @@
         <v>13</v>
       </c>
       <c r="C588" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D588" t="s">
         <v>405</v>
@@ -16190,7 +16316,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" hidden="1" spans="1:8">
       <c r="A589" t="s">
         <v>70</v>
       </c>
@@ -16198,7 +16324,7 @@
         <v>38</v>
       </c>
       <c r="C589" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D589" t="s">
         <v>405</v>
@@ -16225,7 +16351,7 @@
         <v>13</v>
       </c>
       <c r="C590" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D590" t="s">
         <v>405</v>
@@ -16253,7 +16379,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="591" spans="1:13">
+    <row r="591" hidden="1" spans="1:13">
       <c r="A591" t="s">
         <v>12</v>
       </c>
@@ -16261,13 +16387,13 @@
         <v>13</v>
       </c>
       <c r="C591" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D591" t="s">
         <v>405</v>
       </c>
       <c r="E591" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F591" t="s">
         <v>7</v>
@@ -16286,7 +16412,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="592" spans="1:13">
+    <row r="592" hidden="1" spans="1:13">
       <c r="A592" t="s">
         <v>12</v>
       </c>
@@ -16294,13 +16420,13 @@
         <v>13</v>
       </c>
       <c r="C592" t="s">
+        <v>675</v>
+      </c>
+      <c r="D592" t="s">
+        <v>405</v>
+      </c>
+      <c r="E592" t="s">
         <v>674</v>
-      </c>
-      <c r="D592" t="s">
-        <v>405</v>
-      </c>
-      <c r="E592" t="s">
-        <v>673</v>
       </c>
       <c r="F592" t="s">
         <v>7</v>
@@ -16327,7 +16453,7 @@
         <v>13</v>
       </c>
       <c r="C593" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D593" t="s">
         <v>405</v>
@@ -16346,7 +16472,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" hidden="1" spans="1:8">
       <c r="A594" t="s">
         <v>10</v>
       </c>
@@ -16354,7 +16480,7 @@
         <v>38</v>
       </c>
       <c r="C594" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D594" t="s">
         <v>405</v>
@@ -16373,7 +16499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:9">
+    <row r="595" hidden="1" spans="1:9">
       <c r="A595" t="s">
         <v>319</v>
       </c>
@@ -16381,16 +16507,16 @@
         <v>13</v>
       </c>
       <c r="C595" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D595" t="s">
         <v>405</v>
       </c>
       <c r="E595" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F595" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G595" t="s">
         <v>545</v>
@@ -16412,7 +16538,7 @@
         <v>13</v>
       </c>
       <c r="C596" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D596" t="s">
         <v>405</v>
@@ -16448,7 +16574,7 @@
         <v>13</v>
       </c>
       <c r="C597" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D597" t="s">
         <v>405</v>
@@ -16476,7 +16602,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" hidden="1" spans="1:8">
       <c r="A598" t="s">
         <v>12</v>
       </c>
@@ -16484,7 +16610,7 @@
         <v>13</v>
       </c>
       <c r="C598" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D598" t="s">
         <v>405</v>
@@ -16503,7 +16629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:12">
+    <row r="599" hidden="1" spans="1:12">
       <c r="A599" t="s">
         <v>12</v>
       </c>
@@ -16511,7 +16637,7 @@
         <v>13</v>
       </c>
       <c r="C599" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D599" t="s">
         <v>405</v>
@@ -16533,7 +16659,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="600" spans="1:12">
+    <row r="600" hidden="1" spans="1:12">
       <c r="A600" t="s">
         <v>12</v>
       </c>
@@ -16541,7 +16667,7 @@
         <v>13</v>
       </c>
       <c r="C600" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D600" t="s">
         <v>405</v>
@@ -16563,7 +16689,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="601" spans="1:12">
+    <row r="601" hidden="1" spans="1:12">
       <c r="A601" t="s">
         <v>12</v>
       </c>
@@ -16571,7 +16697,7 @@
         <v>13</v>
       </c>
       <c r="C601" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D601" t="s">
         <v>405</v>
@@ -16593,7 +16719,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" hidden="1" spans="1:8">
       <c r="A602" t="s">
         <v>10</v>
       </c>
@@ -16601,7 +16727,7 @@
         <v>38</v>
       </c>
       <c r="C602" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D602" t="s">
         <v>405</v>
@@ -16628,7 +16754,7 @@
         <v>13</v>
       </c>
       <c r="C603" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D603" t="s">
         <v>405</v>
@@ -16650,7 +16776,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" hidden="1" spans="1:8">
       <c r="A604" t="s">
         <v>10</v>
       </c>
@@ -16658,7 +16784,7 @@
         <v>38</v>
       </c>
       <c r="C604" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D604" t="s">
         <v>405</v>
@@ -16677,7 +16803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:12">
+    <row r="605" hidden="1" spans="1:12">
       <c r="A605" t="s">
         <v>12</v>
       </c>
@@ -16685,7 +16811,7 @@
         <v>13</v>
       </c>
       <c r="C605" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D605" t="s">
         <v>405</v>
@@ -16712,7 +16838,7 @@
         <v>13</v>
       </c>
       <c r="C606" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D606" t="s">
         <v>405</v>
@@ -16728,10 +16854,10 @@
         <v>1</v>
       </c>
       <c r="L606" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="607" spans="2:9">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="607" hidden="1" spans="2:9">
       <c r="B607" t="s">
         <v>38</v>
       </c>
@@ -16816,7 +16942,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="610" spans="1:12">
+    <row r="610" hidden="1" spans="1:12">
       <c r="A610" t="s">
         <v>12</v>
       </c>
@@ -16900,7 +17026,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="613" spans="1:12">
+    <row r="613" hidden="1" spans="1:12">
       <c r="A613" t="s">
         <v>12</v>
       </c>
@@ -17030,7 +17156,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="617" spans="1:13">
+    <row r="617" hidden="1" spans="1:13">
       <c r="A617" t="s">
         <v>319</v>
       </c>
@@ -17104,7 +17230,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" hidden="1" spans="1:9">
       <c r="A619" t="s">
         <v>319</v>
       </c>
@@ -17195,7 +17321,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="622" spans="1:12">
+    <row r="622" hidden="1" spans="1:12">
       <c r="A622" t="s">
         <v>10</v>
       </c>
@@ -17225,7 +17351,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" hidden="1" spans="1:9">
       <c r="A623" t="s">
         <v>12</v>
       </c>
@@ -17253,7 +17379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:12">
+    <row r="624" hidden="1" spans="1:12">
       <c r="A624" t="s">
         <v>12</v>
       </c>
@@ -17313,7 +17439,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="626" spans="1:12">
+    <row r="626" hidden="1" spans="1:12">
       <c r="A626" t="s">
         <v>12</v>
       </c>
@@ -17343,7 +17469,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="627" spans="1:12">
+    <row r="627" hidden="1" spans="1:12">
       <c r="A627" t="s">
         <v>10</v>
       </c>
@@ -17373,7 +17499,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="628" spans="1:12">
+    <row r="628" hidden="1" spans="1:12">
       <c r="A628" t="s">
         <v>12</v>
       </c>
@@ -17403,7 +17529,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="629" spans="1:12">
+    <row r="629" hidden="1" spans="1:12">
       <c r="A629" t="s">
         <v>12</v>
       </c>
@@ -17433,7 +17559,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="630" spans="1:12">
+    <row r="630" hidden="1" spans="1:12">
       <c r="A630" t="s">
         <v>12</v>
       </c>
@@ -17463,7 +17589,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="631" spans="1:12">
+    <row r="631" hidden="1" spans="1:12">
       <c r="A631" t="s">
         <v>12</v>
       </c>
@@ -17493,7 +17619,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="632" spans="1:12">
+    <row r="632" hidden="1" spans="1:12">
       <c r="A632" t="s">
         <v>12</v>
       </c>
@@ -17553,7 +17679,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" hidden="1" spans="1:8">
       <c r="A634" t="s">
         <v>10</v>
       </c>
@@ -17580,7 +17706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:12">
+    <row r="635" hidden="1" spans="1:12">
       <c r="A635" t="s">
         <v>12</v>
       </c>
@@ -17610,7 +17736,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" hidden="1" spans="1:8">
       <c r="A636" t="s">
         <v>10</v>
       </c>
@@ -17637,7 +17763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" hidden="1" spans="1:8">
       <c r="A637" t="s">
         <v>12</v>
       </c>
@@ -17664,7 +17790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" hidden="1" spans="1:8">
       <c r="A638" t="s">
         <v>10</v>
       </c>
@@ -17691,7 +17817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" hidden="1" spans="1:8">
       <c r="A639" t="s">
         <v>12</v>
       </c>
@@ -17718,7 +17844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" hidden="1" spans="1:9">
       <c r="A640" t="s">
         <v>319</v>
       </c>
@@ -17746,7 +17872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:12">
+    <row r="641" hidden="1" spans="1:12">
       <c r="A641" t="s">
         <v>300</v>
       </c>
@@ -17777,7 +17903,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" hidden="1" spans="1:8">
       <c r="A642" t="s">
         <v>12</v>
       </c>
@@ -17804,7 +17930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:12">
+    <row r="643" hidden="1" spans="1:12">
       <c r="A643" t="s">
         <v>12</v>
       </c>
@@ -17834,7 +17960,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" hidden="1" spans="1:8">
       <c r="A644" t="s">
         <v>12</v>
       </c>
@@ -17951,7 +18077,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="648" spans="1:12">
+    <row r="648" hidden="1" spans="1:12">
       <c r="A648" t="s">
         <v>12</v>
       </c>
@@ -18011,7 +18137,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" hidden="1" spans="1:8">
       <c r="A650" t="s">
         <v>12</v>
       </c>
@@ -18038,7 +18164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" hidden="1" spans="1:8">
       <c r="A651" t="s">
         <v>12</v>
       </c>
@@ -18095,7 +18221,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="653" spans="1:12">
+    <row r="653" hidden="1" spans="1:12">
       <c r="A653" t="s">
         <v>12</v>
       </c>
@@ -18125,7 +18251,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="654" spans="1:12">
+    <row r="654" hidden="1" spans="1:12">
       <c r="A654" t="s">
         <v>12</v>
       </c>
@@ -18182,10 +18308,10 @@
         <v>1</v>
       </c>
       <c r="L655" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="656" spans="1:8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="656" hidden="1" spans="1:8">
       <c r="A656" t="s">
         <v>10</v>
       </c>
@@ -18212,7 +18338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" hidden="1" spans="1:8">
       <c r="A657" t="s">
         <v>10</v>
       </c>
@@ -18269,7 +18395,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" hidden="1" spans="1:8">
       <c r="A659" t="s">
         <v>10</v>
       </c>
@@ -18296,7 +18422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" hidden="1" spans="1:8">
       <c r="A660" t="s">
         <v>10</v>
       </c>
@@ -18354,7 +18480,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="662" spans="1:12">
+    <row r="662" hidden="1" spans="1:12">
       <c r="A662" t="s">
         <v>12</v>
       </c>
@@ -18384,7 +18510,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="663" spans="1:12">
+    <row r="663" hidden="1" spans="1:12">
       <c r="A663" t="s">
         <v>12</v>
       </c>
@@ -18414,7 +18540,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" hidden="1" spans="1:8">
       <c r="A664" t="s">
         <v>12</v>
       </c>
@@ -18441,7 +18567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:12">
+    <row r="665" hidden="1" spans="1:12">
       <c r="A665" t="s">
         <v>12</v>
       </c>
@@ -18502,7 +18628,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" hidden="1" spans="1:8">
       <c r="A667" t="s">
         <v>10</v>
       </c>
@@ -18529,7 +18655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="2:9">
+    <row r="668" hidden="1" spans="2:9">
       <c r="B668" t="s">
         <v>38</v>
       </c>
@@ -18548,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="2:9">
+    <row r="669" hidden="1" spans="2:9">
       <c r="B669" t="s">
         <v>38</v>
       </c>
@@ -18567,7 +18693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" hidden="1" spans="1:8">
       <c r="A670" t="s">
         <v>10</v>
       </c>
@@ -18625,7 +18751,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="672" spans="1:12">
+    <row r="672" hidden="1" spans="1:12">
       <c r="A672" t="s">
         <v>12</v>
       </c>
@@ -18685,7 +18811,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="674" spans="1:14">
+    <row r="674" hidden="1" spans="1:14">
       <c r="A674" t="s">
         <v>12</v>
       </c>
@@ -18751,7 +18877,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="676" spans="2:9">
+    <row r="676" hidden="1" spans="2:9">
       <c r="B676" t="s">
         <v>38</v>
       </c>
@@ -18770,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" hidden="1" spans="1:8">
       <c r="A677" t="s">
         <v>12</v>
       </c>
@@ -18797,7 +18923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" hidden="1" spans="1:8">
       <c r="A678" t="s">
         <v>12</v>
       </c>
@@ -18824,7 +18950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" hidden="1" spans="1:8">
       <c r="A679" t="s">
         <v>10</v>
       </c>
@@ -18882,7 +19008,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="681" spans="1:12">
+    <row r="681" hidden="1" spans="1:12">
       <c r="A681" t="s">
         <v>12</v>
       </c>
@@ -18912,7 +19038,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" hidden="1" spans="1:8">
       <c r="A682" t="s">
         <v>10</v>
       </c>
@@ -18939,7 +19065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" hidden="1" spans="1:8">
       <c r="A683" t="s">
         <v>10</v>
       </c>
@@ -18966,7 +19092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" hidden="1" spans="1:12">
       <c r="A684" t="s">
         <v>10</v>
       </c>
@@ -18992,6 +19118,9 @@
         <f>COUNTIF(Hoja2!A:A,C684)</f>
         <v>1</v>
       </c>
+      <c r="L684" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="685" hidden="1" spans="1:12">
       <c r="A685" t="s">
@@ -19053,7 +19182,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="687" spans="1:13">
+    <row r="687" hidden="1" spans="1:13">
       <c r="A687" t="s">
         <v>300</v>
       </c>
@@ -19087,7 +19216,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="688" spans="1:12">
+    <row r="688" hidden="1" spans="1:12">
       <c r="A688" t="s">
         <v>12</v>
       </c>
@@ -19117,7 +19246,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" hidden="1" spans="1:12">
       <c r="A689" t="s">
         <v>10</v>
       </c>
@@ -19143,8 +19272,11 @@
         <f>COUNTIF(Hoja2!A:A,C689)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="690" spans="2:9">
+      <c r="L689" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="690" hidden="1" spans="2:12">
       <c r="B690" t="s">
         <v>38</v>
       </c>
@@ -19165,8 +19297,11 @@
         <f>COUNTIF(Hoja2!B:B,C690)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="691" spans="1:9">
+      <c r="L690" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="691" hidden="1" spans="1:14">
       <c r="A691" t="s">
         <v>319</v>
       </c>
@@ -19196,8 +19331,17 @@
         <f>COUNTIF(Hoja2!B:B,C691)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="692" spans="1:13">
+      <c r="L691" t="s">
+        <v>617</v>
+      </c>
+      <c r="M691" t="s">
+        <v>616</v>
+      </c>
+      <c r="N691" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="692" hidden="1" spans="1:13">
       <c r="A692" t="s">
         <v>12</v>
       </c>
@@ -19230,7 +19374,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="693" spans="1:13">
+    <row r="693" hidden="1" spans="1:13">
       <c r="A693" t="s">
         <v>12</v>
       </c>
@@ -19263,7 +19407,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" hidden="1" spans="1:12">
       <c r="A694" t="s">
         <v>12</v>
       </c>
@@ -19289,8 +19433,11 @@
         <f>COUNTIF(Hoja2!A:A,C694)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="695" spans="1:9">
+      <c r="L694" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="695" hidden="1" spans="1:12">
       <c r="A695" t="s">
         <v>12</v>
       </c>
@@ -19320,8 +19467,11 @@
         <f>COUNTIF(Hoja2!B:B,C695)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="696" spans="1:8">
+      <c r="L695" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="696" hidden="1" spans="1:12">
       <c r="A696" t="s">
         <v>12</v>
       </c>
@@ -19347,8 +19497,11 @@
         <f>COUNTIF(Hoja2!A:A,C696)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="697" spans="1:8">
+      <c r="L696" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="697" hidden="1" spans="1:12">
       <c r="A697" t="s">
         <v>12</v>
       </c>
@@ -19374,6 +19527,9 @@
         <f>COUNTIF(Hoja2!A:A,C697)</f>
         <v>1</v>
       </c>
+      <c r="L697" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="698" hidden="1" spans="1:12">
       <c r="A698" t="s">
@@ -19402,10 +19558,10 @@
         <v>1</v>
       </c>
       <c r="L698" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="699" spans="1:9">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="699" hidden="1" spans="1:12">
       <c r="A699" t="s">
         <v>319</v>
       </c>
@@ -19435,8 +19591,11 @@
         <f>COUNTIF(Hoja2!B:B,C699)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="700" spans="1:9">
+      <c r="L699" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="700" hidden="1" spans="1:12">
       <c r="A700" t="s">
         <v>319</v>
       </c>
@@ -19466,8 +19625,11 @@
         <f>COUNTIF(Hoja2!B:B,C700)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="701" spans="1:9">
+      <c r="L700" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="701" hidden="1" spans="1:12">
       <c r="A701" t="s">
         <v>12</v>
       </c>
@@ -19497,8 +19659,11 @@
         <f>COUNTIF(Hoja2!B:B,C701)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="702" spans="1:9">
+      <c r="L701" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="702" hidden="1" spans="1:13">
       <c r="A702" t="s">
         <v>319</v>
       </c>
@@ -19528,8 +19693,14 @@
         <f>COUNTIF(Hoja2!B:B,C702)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="703" spans="1:9">
+      <c r="L702" t="s">
+        <v>617</v>
+      </c>
+      <c r="M702" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="703" hidden="1" spans="1:12">
       <c r="A703" t="s">
         <v>12</v>
       </c>
@@ -19559,8 +19730,11 @@
         <f>COUNTIF(Hoja2!B:B,C703)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="704" spans="1:9">
+      <c r="L703" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="704" hidden="1" spans="1:12">
       <c r="A704" t="s">
         <v>319</v>
       </c>
@@ -19587,6 +19761,9 @@
         <f>COUNTIF(Hoja2!B:B,C704)</f>
         <v>0</v>
       </c>
+      <c r="L704" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="705" hidden="1" spans="1:12">
       <c r="A705" t="s">
@@ -19618,7 +19795,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="706" spans="1:12">
+    <row r="706" hidden="1" spans="1:12">
       <c r="A706" t="s">
         <v>12</v>
       </c>
@@ -19648,7 +19825,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="707" spans="1:12">
+    <row r="707" hidden="1" spans="1:12">
       <c r="A707" t="s">
         <v>12</v>
       </c>
@@ -19772,7 +19949,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="711" spans="1:9">
+    <row r="711" hidden="1" spans="1:12">
       <c r="A711" t="s">
         <v>319</v>
       </c>
@@ -19802,8 +19979,11 @@
         <f>COUNTIF(Hoja2!B:B,C711)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="712" spans="1:8">
+      <c r="L711" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="712" hidden="1" spans="1:12">
       <c r="A712" t="s">
         <v>12</v>
       </c>
@@ -19829,8 +20009,11 @@
         <f>COUNTIF(Hoja2!A:A,C712)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="713" spans="1:8">
+      <c r="L712" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="713" hidden="1" spans="1:13">
       <c r="A713" t="s">
         <v>12</v>
       </c>
@@ -19856,8 +20039,14 @@
         <f>COUNTIF(Hoja2!A:A,C713)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="714" spans="1:12">
+      <c r="L713" t="s">
+        <v>347</v>
+      </c>
+      <c r="M713" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="714" hidden="1" spans="1:12">
       <c r="A714" t="s">
         <v>12</v>
       </c>
@@ -19887,7 +20076,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" hidden="1" spans="1:12">
       <c r="A715" t="s">
         <v>12</v>
       </c>
@@ -19913,8 +20102,11 @@
         <f>COUNTIF(Hoja2!A:A,C715)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="716" spans="1:12">
+      <c r="L715" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="716" hidden="1" spans="1:12">
       <c r="A716" t="s">
         <v>12</v>
       </c>
@@ -19944,7 +20136,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="717" spans="1:12">
+    <row r="717" hidden="1" spans="1:12">
       <c r="A717" t="s">
         <v>12</v>
       </c>
@@ -20004,7 +20196,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" hidden="1" spans="1:12">
       <c r="A719" t="s">
         <v>12</v>
       </c>
@@ -20030,8 +20222,11 @@
         <f>COUNTIF(Hoja2!A:A,C719)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="720" spans="1:8">
+      <c r="L719" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="720" hidden="1" spans="1:13">
       <c r="A720" t="s">
         <v>12</v>
       </c>
@@ -20057,8 +20252,14 @@
         <f>COUNTIF(Hoja2!A:A,C720)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="721" spans="1:8">
+      <c r="L720" t="s">
+        <v>617</v>
+      </c>
+      <c r="M720" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="721" hidden="1" spans="1:12">
       <c r="A721" t="s">
         <v>12</v>
       </c>
@@ -20084,8 +20285,11 @@
         <f>COUNTIF(Hoja2!A:A,C721)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="722" spans="1:8">
+      <c r="L721" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="722" hidden="1" spans="1:12">
       <c r="A722" t="s">
         <v>12</v>
       </c>
@@ -20111,6 +20315,9 @@
         <f>COUNTIF(Hoja2!A:A,C722)</f>
         <v>1</v>
       </c>
+      <c r="L722" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="723" hidden="1" spans="1:12">
       <c r="A723" t="s">
@@ -20142,7 +20349,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" hidden="1" spans="1:8">
       <c r="A724" t="s">
         <v>12</v>
       </c>
@@ -20169,7 +20376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="2:9">
+    <row r="725" hidden="1" spans="2:9">
       <c r="B725" t="s">
         <v>38</v>
       </c>
@@ -20188,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:14">
+    <row r="726" hidden="1" spans="1:14">
       <c r="A726" t="s">
         <v>12</v>
       </c>
@@ -20284,7 +20491,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="729" spans="1:12">
+    <row r="729" hidden="1" spans="1:12">
       <c r="A729" t="s">
         <v>12</v>
       </c>
@@ -20314,7 +20521,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="730" spans="1:12">
+    <row r="730" hidden="1" spans="1:12">
       <c r="A730" t="s">
         <v>12</v>
       </c>
@@ -20401,7 +20608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:9">
+    <row r="734" hidden="1" spans="1:9">
       <c r="A734" t="s">
         <v>319</v>
       </c>
@@ -20429,7 +20636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:9">
+    <row r="735" hidden="1" spans="1:9">
       <c r="A735" t="s">
         <v>300</v>
       </c>
@@ -20460,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:9">
+    <row r="736" hidden="1" spans="1:9">
       <c r="A736" t="s">
         <v>300</v>
       </c>
@@ -20491,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:9">
+    <row r="737" hidden="1" spans="1:9">
       <c r="A737" t="s">
         <v>300</v>
       </c>
@@ -20522,7 +20729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:9">
+    <row r="738" hidden="1" spans="1:9">
       <c r="A738" t="s">
         <v>300</v>
       </c>
@@ -20553,7 +20760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:9">
+    <row r="739" hidden="1" spans="1:9">
       <c r="A739" t="s">
         <v>300</v>
       </c>
@@ -20584,7 +20791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:9">
+    <row r="740" hidden="1" spans="1:9">
       <c r="A740" t="s">
         <v>319</v>
       </c>
@@ -20699,7 +20906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="2:9">
+    <row r="748" hidden="1" spans="2:9">
       <c r="B748" t="s">
         <v>38</v>
       </c>
@@ -20754,7 +20961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:9">
+    <row r="752" hidden="1" spans="1:9">
       <c r="A752" t="s">
         <v>319</v>
       </c>
@@ -20794,7 +21001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:9">
+    <row r="754" hidden="1" spans="1:9">
       <c r="A754" t="s">
         <v>319</v>
       </c>
@@ -20942,7 +21149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:9">
+    <row r="765" hidden="1" spans="1:9">
       <c r="A765" t="s">
         <v>319</v>
       </c>
@@ -21105,7 +21312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:9">
+    <row r="777" hidden="1" spans="1:9">
       <c r="A777" t="s">
         <v>12</v>
       </c>
@@ -21184,7 +21391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:12">
+    <row r="782" hidden="1" spans="1:12">
       <c r="A782" t="s">
         <v>12</v>
       </c>
@@ -21218,7 +21425,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="783" spans="1:9">
+    <row r="783" hidden="1" spans="1:9">
       <c r="A783" t="s">
         <v>12</v>
       </c>
@@ -21261,7 +21468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:9">
+    <row r="785" hidden="1" spans="1:9">
       <c r="A785" t="s">
         <v>319</v>
       </c>
@@ -21292,7 +21499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:9">
+    <row r="786" hidden="1" spans="1:9">
       <c r="A786" t="s">
         <v>319</v>
       </c>
@@ -21467,7 +21674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:9">
+    <row r="799" hidden="1" spans="1:9">
       <c r="A799" t="s">
         <v>319</v>
       </c>
@@ -21630,7 +21837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:9">
+    <row r="811" hidden="1" spans="1:9">
       <c r="A811" t="s">
         <v>319</v>
       </c>
@@ -21661,7 +21868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:9">
+    <row r="812" hidden="1" spans="1:9">
       <c r="A812" t="s">
         <v>12</v>
       </c>
@@ -21752,7 +21959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:9">
+    <row r="818" hidden="1" spans="1:9">
       <c r="A818" t="s">
         <v>12</v>
       </c>
@@ -21795,7 +22002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:12">
+    <row r="820" hidden="1" spans="1:12">
       <c r="A820" t="s">
         <v>300</v>
       </c>
@@ -21826,7 +22033,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="821" spans="1:13">
+    <row r="821" hidden="1" spans="1:13">
       <c r="A821" t="s">
         <v>300</v>
       </c>
@@ -22003,7 +22210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:9">
+    <row r="830" hidden="1" spans="1:9">
       <c r="A830" t="s">
         <v>300</v>
       </c>
@@ -22034,7 +22241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:9">
+    <row r="831" hidden="1" spans="1:9">
       <c r="A831" t="s">
         <v>319</v>
       </c>
@@ -22074,7 +22281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:9">
+    <row r="833" hidden="1" spans="1:9">
       <c r="A833" t="s">
         <v>319</v>
       </c>
@@ -22117,7 +22324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:9">
+    <row r="835" hidden="1" spans="1:9">
       <c r="A835" t="s">
         <v>319</v>
       </c>
@@ -22292,7 +22499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:9">
+    <row r="848" hidden="1" spans="1:9">
       <c r="A848" t="s">
         <v>319</v>
       </c>
@@ -22380,7 +22587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:9">
+    <row r="854" hidden="1" spans="1:9">
       <c r="A854" t="s">
         <v>12</v>
       </c>
@@ -22468,7 +22675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:12">
+    <row r="860" hidden="1" spans="1:12">
       <c r="A860" t="s">
         <v>300</v>
       </c>
@@ -22526,7 +22733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:9">
+    <row r="863" hidden="1" spans="1:9">
       <c r="A863" t="s">
         <v>12</v>
       </c>
@@ -23094,7 +23301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:9">
+    <row r="909" hidden="1" spans="1:9">
       <c r="A909" t="s">
         <v>319</v>
       </c>
@@ -23122,7 +23329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:13">
+    <row r="910" hidden="1" spans="1:13">
       <c r="A910" t="s">
         <v>300</v>
       </c>
@@ -23156,7 +23363,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="911" spans="1:13">
+    <row r="911" hidden="1" spans="1:13">
       <c r="A911" t="s">
         <v>300</v>
       </c>
@@ -23190,7 +23397,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="912" spans="1:12">
+    <row r="912" hidden="1" spans="1:12">
       <c r="A912" t="s">
         <v>300</v>
       </c>
@@ -23545,7 +23752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:9">
+    <row r="940" hidden="1" spans="1:9">
       <c r="A940" t="s">
         <v>12</v>
       </c>
@@ -23882,7 +24089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:12">
+    <row r="967" hidden="1" spans="1:12">
       <c r="A967" t="s">
         <v>12</v>
       </c>
@@ -24244,7 +24451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:12">
+    <row r="994" hidden="1" spans="1:12">
       <c r="A994" t="s">
         <v>12</v>
       </c>
@@ -24275,7 +24482,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="995" spans="1:12">
+    <row r="995" hidden="1" spans="1:12">
       <c r="A995" t="s">
         <v>300</v>
       </c>
@@ -24309,7 +24516,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="996" spans="1:12">
+    <row r="996" hidden="1" spans="1:12">
       <c r="A996" t="s">
         <v>319</v>
       </c>
@@ -24364,7 +24571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:12">
+    <row r="999" hidden="1" spans="1:12">
       <c r="A999" t="s">
         <v>300</v>
       </c>
@@ -24470,7 +24677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1006" spans="1:9">
+    <row r="1006" hidden="1" spans="1:9">
       <c r="A1006" t="s">
         <v>319</v>
       </c>
@@ -24498,7 +24705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:9">
+    <row r="1007" hidden="1" spans="1:9">
       <c r="A1007" t="s">
         <v>300</v>
       </c>
@@ -24562,7 +24769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:12">
+    <row r="1011" hidden="1" spans="1:12">
       <c r="A1011" t="s">
         <v>300</v>
       </c>
@@ -24656,7 +24863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:9">
+    <row r="1017" hidden="1" spans="1:9">
       <c r="A1017" t="s">
         <v>300</v>
       </c>
@@ -24732,7 +24939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1022" spans="1:9">
+    <row r="1022" hidden="1" spans="1:9">
       <c r="A1022" t="s">
         <v>12</v>
       </c>
@@ -24847,7 +25054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1030" spans="1:9">
+    <row r="1030" hidden="1" spans="1:9">
       <c r="A1030" t="s">
         <v>300</v>
       </c>
@@ -24902,7 +25109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1033" spans="1:9">
+    <row r="1033" hidden="1" spans="1:9">
       <c r="A1033" t="s">
         <v>319</v>
       </c>
@@ -24930,7 +25137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:12">
+    <row r="1034" hidden="1" spans="1:12">
       <c r="A1034" t="s">
         <v>300</v>
       </c>
@@ -25024,7 +25231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1040" spans="1:12">
+    <row r="1040" hidden="1" spans="1:12">
       <c r="A1040" t="s">
         <v>300</v>
       </c>
@@ -25274,7 +25481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1059" spans="1:9">
+    <row r="1059" hidden="1" spans="1:9">
       <c r="A1059" t="s">
         <v>319</v>
       </c>
@@ -25302,7 +25509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:9">
+    <row r="1060" hidden="1" spans="1:9">
       <c r="A1060" t="s">
         <v>319</v>
       </c>
@@ -25330,7 +25537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1061" spans="1:9">
+    <row r="1061" hidden="1" spans="1:9">
       <c r="A1061" t="s">
         <v>319</v>
       </c>
@@ -25562,7 +25769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1079" spans="1:9">
+    <row r="1079" hidden="1" spans="1:9">
       <c r="A1079" t="s">
         <v>300</v>
       </c>
@@ -25824,7 +26031,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1095" spans="1:13">
+    <row r="1095" hidden="1" spans="1:13">
       <c r="A1095" t="s">
         <v>12</v>
       </c>
@@ -25873,7 +26080,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1097" spans="1:12">
+    <row r="1097" hidden="1" spans="1:12">
       <c r="A1097" t="s">
         <v>12</v>
       </c>
@@ -26057,7 +26264,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1105" spans="1:12">
+    <row r="1105" hidden="1" spans="1:12">
       <c r="A1105" t="s">
         <v>12</v>
       </c>
@@ -26195,7 +26402,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1111" spans="1:12">
+    <row r="1111" hidden="1" spans="1:12">
       <c r="A1111" t="s">
         <v>12</v>
       </c>
@@ -26241,7 +26448,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1113" spans="1:13">
+    <row r="1113" hidden="1" spans="1:13">
       <c r="A1113" t="s">
         <v>12</v>
       </c>
@@ -26336,7 +26543,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1117" spans="1:12">
+    <row r="1117" hidden="1" spans="1:12">
       <c r="A1117" t="s">
         <v>12</v>
       </c>
@@ -26405,7 +26612,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1120" spans="1:13">
+    <row r="1120" hidden="1" spans="1:13">
       <c r="A1120" t="s">
         <v>12</v>
       </c>
@@ -26431,7 +26638,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1121" spans="1:12">
+    <row r="1121" hidden="1" spans="1:12">
       <c r="A1121" t="s">
         <v>12</v>
       </c>
@@ -26549,7 +26756,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1126" spans="1:13">
+    <row r="1126" hidden="1" spans="1:13">
       <c r="A1126" t="s">
         <v>12</v>
       </c>
@@ -26759,7 +26966,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1135" spans="1:13">
+    <row r="1135" hidden="1" spans="1:13">
       <c r="A1135" t="s">
         <v>12</v>
       </c>
@@ -26831,7 +27038,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1138" spans="1:13">
+    <row r="1138" hidden="1" spans="1:13">
       <c r="A1138" t="s">
         <v>12</v>
       </c>
@@ -26880,7 +27087,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1140" spans="1:12">
+    <row r="1140" hidden="1" spans="1:12">
       <c r="A1140" t="s">
         <v>12</v>
       </c>
@@ -26903,7 +27110,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="1141" spans="1:12">
+    <row r="1141" hidden="1" spans="1:12">
       <c r="A1141" t="s">
         <v>12</v>
       </c>
@@ -26949,7 +27156,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1143" spans="1:13">
+    <row r="1143" hidden="1" spans="1:13">
       <c r="A1143" t="s">
         <v>12</v>
       </c>
@@ -26998,7 +27205,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1145" spans="1:13">
+    <row r="1145" hidden="1" spans="1:13">
       <c r="A1145" t="s">
         <v>12</v>
       </c>
@@ -27134,7 +27341,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1150" spans="1:12">
+    <row r="1150" hidden="1" spans="1:12">
       <c r="A1150" t="s">
         <v>12</v>
       </c>
@@ -27183,7 +27390,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1152" spans="1:13">
+    <row r="1152" hidden="1" spans="1:13">
       <c r="A1152" t="s">
         <v>12</v>
       </c>
@@ -27278,7 +27485,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1156" spans="1:12">
+    <row r="1156" hidden="1" spans="1:12">
       <c r="A1156" t="s">
         <v>70</v>
       </c>
@@ -27295,7 +27502,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="1157" spans="1:12">
+    <row r="1157" hidden="1" spans="1:12">
       <c r="A1157" t="s">
         <v>12</v>
       </c>
@@ -27364,7 +27571,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1160" spans="1:13">
+    <row r="1160" hidden="1" spans="1:13">
       <c r="A1160" t="s">
         <v>12</v>
       </c>
@@ -27482,7 +27689,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1165" spans="1:13">
+    <row r="1165" hidden="1" spans="1:13">
       <c r="A1165" t="s">
         <v>12</v>
       </c>
@@ -27531,7 +27738,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1167" spans="1:12">
+    <row r="1167" hidden="1" spans="1:12">
       <c r="A1167" t="s">
         <v>70</v>
       </c>
@@ -27577,7 +27784,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1169" spans="1:13">
+    <row r="1169" hidden="1" spans="1:13">
       <c r="A1169" t="s">
         <v>12</v>
       </c>
@@ -27649,7 +27856,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1172" spans="1:12">
+    <row r="1172" hidden="1" spans="1:12">
       <c r="A1172" t="s">
         <v>70</v>
       </c>
@@ -27695,7 +27902,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1174" spans="1:12">
+    <row r="1174" hidden="1" spans="1:12">
       <c r="A1174" t="s">
         <v>12</v>
       </c>
@@ -27879,7 +28086,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1182" spans="1:13">
+    <row r="1182" hidden="1" spans="1:13">
       <c r="A1182" t="s">
         <v>12</v>
       </c>
@@ -27928,7 +28135,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1184" spans="1:13">
+    <row r="1184" hidden="1" spans="1:13">
       <c r="A1184" t="s">
         <v>12</v>
       </c>
@@ -28115,7 +28322,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1192" spans="1:13">
+    <row r="1192" hidden="1" spans="1:13">
       <c r="A1192" t="s">
         <v>12</v>
       </c>
@@ -28210,7 +28417,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1196" spans="1:13">
+    <row r="1196" hidden="1" spans="1:13">
       <c r="A1196" t="s">
         <v>12</v>
       </c>
@@ -28282,7 +28489,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1199" spans="1:13">
+    <row r="1199" hidden="1" spans="1:13">
       <c r="A1199" t="s">
         <v>12</v>
       </c>
@@ -28561,7 +28768,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1211" spans="1:13">
+    <row r="1211" hidden="1" spans="1:13">
       <c r="A1211" t="s">
         <v>12</v>
       </c>
@@ -28771,7 +28978,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1220" spans="1:13">
+    <row r="1220" hidden="1" spans="1:13">
       <c r="A1220" t="s">
         <v>12</v>
       </c>
@@ -28820,7 +29027,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1222" spans="1:13">
+    <row r="1222" hidden="1" spans="1:13">
       <c r="A1222" t="s">
         <v>12</v>
       </c>
@@ -28872,7 +29079,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1224" spans="1:13">
+    <row r="1224" hidden="1" spans="1:13">
       <c r="A1224" t="s">
         <v>12</v>
       </c>
@@ -28967,7 +29174,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1228" spans="1:13">
+    <row r="1228" hidden="1" spans="1:13">
       <c r="A1228" t="s">
         <v>12</v>
       </c>
@@ -29085,7 +29292,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1233" spans="1:13">
+    <row r="1233" hidden="1" spans="1:13">
       <c r="A1233" t="s">
         <v>12</v>
       </c>
@@ -29134,7 +29341,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1235" spans="1:12">
+    <row r="1235" hidden="1" spans="1:12">
       <c r="A1235" t="s">
         <v>12</v>
       </c>
@@ -29197,7 +29404,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1238" spans="1:12">
+    <row r="1238" hidden="1" spans="1:12">
       <c r="A1238" t="s">
         <v>12</v>
       </c>
@@ -29312,7 +29519,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1243" spans="1:13">
+    <row r="1243" hidden="1" spans="1:13">
       <c r="A1243" t="s">
         <v>12</v>
       </c>
@@ -29338,7 +29545,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1244" spans="1:12">
+    <row r="1244" hidden="1" spans="1:12">
       <c r="A1244" t="s">
         <v>12</v>
       </c>
@@ -29384,7 +29591,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1246" spans="1:13">
+    <row r="1246" hidden="1" spans="1:13">
       <c r="A1246" t="s">
         <v>12</v>
       </c>
@@ -29571,7 +29778,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1254" spans="1:13">
+    <row r="1254" hidden="1" spans="1:13">
       <c r="A1254" t="s">
         <v>12</v>
       </c>
@@ -29620,7 +29827,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1256" spans="1:14">
+    <row r="1256" hidden="1" spans="1:14">
       <c r="A1256" t="s">
         <v>12</v>
       </c>
@@ -29833,7 +30040,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1265" spans="1:13">
+    <row r="1265" hidden="1" spans="1:13">
       <c r="A1265" t="s">
         <v>12</v>
       </c>
@@ -29882,7 +30089,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1267" spans="1:13">
+    <row r="1267" hidden="1" spans="1:13">
       <c r="A1267" t="s">
         <v>12</v>
       </c>
@@ -30092,7 +30299,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1276" spans="1:13">
+    <row r="1276" hidden="1" spans="1:13">
       <c r="A1276" t="s">
         <v>12</v>
       </c>
@@ -30141,7 +30348,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1278" spans="1:12">
+    <row r="1278" hidden="1" spans="1:12">
       <c r="A1278" t="s">
         <v>12</v>
       </c>
@@ -30371,7 +30578,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1288" spans="1:14">
+    <row r="1288" hidden="1" spans="1:14">
       <c r="A1288" t="s">
         <v>12</v>
       </c>
@@ -30492,7 +30699,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1293" spans="1:12">
+    <row r="1293" hidden="1" spans="1:12">
       <c r="A1293" t="s">
         <v>70</v>
       </c>
@@ -30584,7 +30791,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1297" spans="1:13">
+    <row r="1297" hidden="1" spans="1:13">
       <c r="A1297" t="s">
         <v>12</v>
       </c>
@@ -30610,7 +30817,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1298" spans="1:13">
+    <row r="1298" hidden="1" spans="1:13">
       <c r="A1298" t="s">
         <v>319</v>
       </c>
@@ -30639,7 +30846,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1299" spans="1:13">
+    <row r="1299" hidden="1" spans="1:13">
       <c r="A1299" t="s">
         <v>12</v>
       </c>
@@ -30711,7 +30918,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1302" spans="1:12">
+    <row r="1302" hidden="1" spans="1:12">
       <c r="A1302" t="s">
         <v>12</v>
       </c>
@@ -30995,7 +31202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1315" spans="1:12">
+    <row r="1315" hidden="1" spans="1:12">
       <c r="A1315" t="s">
         <v>12</v>
       </c>
@@ -31032,7 +31239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1317" spans="1:12">
+    <row r="1317" hidden="1" spans="1:12">
       <c r="A1317" t="s">
         <v>12</v>
       </c>
@@ -31223,7 +31430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1330" spans="1:12">
+    <row r="1330" hidden="1" spans="1:12">
       <c r="A1330" t="s">
         <v>12</v>
       </c>
@@ -31296,7 +31503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1335" spans="1:10">
+    <row r="1335" hidden="1" spans="1:10">
       <c r="A1335" t="s">
         <v>10</v>
       </c>
@@ -31361,7 +31568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1339" spans="1:10">
+    <row r="1339" hidden="1" spans="1:10">
       <c r="A1339" t="s">
         <v>10</v>
       </c>
@@ -31387,7 +31594,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="1340" spans="1:10">
+    <row r="1340" hidden="1" spans="1:10">
       <c r="A1340" t="s">
         <v>10</v>
       </c>
@@ -31413,7 +31620,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="1341" spans="1:10">
+    <row r="1341" hidden="1" spans="1:10">
       <c r="A1341" t="s">
         <v>10</v>
       </c>
@@ -31515,7 +31722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1347" spans="1:10">
+    <row r="1347" hidden="1" spans="1:10">
       <c r="A1347" t="s">
         <v>10</v>
       </c>
@@ -31552,7 +31759,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="1349" spans="1:10">
+    <row r="1349" hidden="1" spans="1:10">
       <c r="A1349" t="s">
         <v>10</v>
       </c>
@@ -31572,7 +31779,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1350" spans="1:10">
+    <row r="1350" hidden="1" spans="1:10">
       <c r="A1350" t="s">
         <v>10</v>
       </c>
@@ -31696,7 +31903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1358" spans="1:14">
+    <row r="1358" hidden="1" spans="1:14">
       <c r="A1358" t="s">
         <v>12</v>
       </c>
@@ -31843,7 +32050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1368" spans="1:12">
+    <row r="1368" hidden="1" spans="1:12">
       <c r="A1368" t="s">
         <v>300</v>
       </c>
@@ -31901,7 +32108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1371" spans="1:12">
+    <row r="1371" hidden="1" spans="1:12">
       <c r="A1371" t="s">
         <v>300</v>
       </c>
@@ -31932,7 +32139,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1372" spans="1:12">
+    <row r="1372" hidden="1" spans="1:12">
       <c r="A1372" t="s">
         <v>300</v>
       </c>
@@ -31966,7 +32173,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1373" spans="1:12">
+    <row r="1373" hidden="1" spans="1:12">
       <c r="A1373" t="s">
         <v>300</v>
       </c>
@@ -32000,7 +32207,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1374" spans="1:12">
+    <row r="1374" hidden="1" spans="1:12">
       <c r="A1374" t="s">
         <v>300</v>
       </c>
@@ -32031,7 +32238,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1375" spans="1:12">
+    <row r="1375" hidden="1" spans="1:12">
       <c r="A1375" t="s">
         <v>300</v>
       </c>
@@ -32062,7 +32269,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1376" spans="1:12">
+    <row r="1376" hidden="1" spans="1:12">
       <c r="A1376" t="s">
         <v>300</v>
       </c>
@@ -32096,7 +32303,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1377" spans="1:9">
+    <row r="1377" hidden="1" spans="1:9">
       <c r="A1377" t="s">
         <v>319</v>
       </c>
@@ -32196,7 +32403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1384" spans="1:12">
+    <row r="1384" hidden="1" spans="1:12">
       <c r="A1384" t="s">
         <v>12</v>
       </c>
@@ -32227,7 +32434,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1385" spans="1:9">
+    <row r="1385" hidden="1" spans="1:9">
       <c r="A1385" t="s">
         <v>12</v>
       </c>
@@ -32315,7 +32522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1391" spans="1:12">
+    <row r="1391" hidden="1" spans="1:12">
       <c r="A1391" t="s">
         <v>300</v>
       </c>
@@ -32373,7 +32580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1394" spans="1:12">
+    <row r="1394" hidden="1" spans="1:12">
       <c r="A1394" t="s">
         <v>300</v>
       </c>
@@ -32407,7 +32614,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1395" spans="1:12">
+    <row r="1395" hidden="1" spans="1:12">
       <c r="A1395" t="s">
         <v>300</v>
       </c>
@@ -32489,7 +32696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1400" spans="1:12">
+    <row r="1400" hidden="1" spans="1:12">
       <c r="A1400" t="s">
         <v>300</v>
       </c>
@@ -32523,7 +32730,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1401" spans="1:12">
+    <row r="1401" hidden="1" spans="1:12">
       <c r="A1401" t="s">
         <v>300</v>
       </c>
@@ -32557,7 +32764,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1402" spans="1:12">
+    <row r="1402" hidden="1" spans="1:12">
       <c r="A1402" t="s">
         <v>300</v>
       </c>
@@ -32591,7 +32798,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1403" spans="1:9">
+    <row r="1403" hidden="1" spans="1:9">
       <c r="A1403" t="s">
         <v>300</v>
       </c>
@@ -32655,7 +32862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1407" spans="1:9">
+    <row r="1407" hidden="1" spans="1:9">
       <c r="A1407" t="s">
         <v>319</v>
       </c>
@@ -32695,7 +32902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1409" spans="1:14">
+    <row r="1409" hidden="1" spans="1:14">
       <c r="A1409" t="s">
         <v>300</v>
       </c>
@@ -32809,13 +33016,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N1415">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="3">
-      <filters>
-        <filter val="Trigger"/>
-        <filter val="StoredProcedure"/>
-        <filter val="View"/>
-        <filter val="UserDefinedFunction"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="StoredProcedure"/>
+      </customFilters>
     </filterColumn>
     <filterColumn colId="9">
       <filters blank="1">
@@ -32826,18 +33033,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="11">
-      <filters blank="1">
-        <filter val="Categorizar"/>
-        <filter val="Dos"/>
-        <filter val="Tres"/>
-        <filter val="Analisis"/>
-        <filter val="QuitaReglas"/>
-        <filter val="AgregaFuncionalidad"/>
-        <filter val="tipoDatoCubre"/>
-        <filter val="CalculoDiferente"/>
-        <filter val="AñadeWhere"/>
-        <filter val="AnalisisSimple"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -32957,7 +33153,7 @@
         <v>923</v>
       </c>
       <c r="C9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -33606,102 +33802,102 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="124" spans="1:1">

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="14145" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7926" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8138" uniqueCount="1532">
   <si>
     <t>Nivel</t>
   </si>
@@ -5556,11 +5556,11 @@
   <dimension ref="A1:O1415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L908" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L353" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V868" sqref="V868"/>
+      <selection pane="bottomRight" activeCell="L462" sqref="L462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -11143,7 +11143,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:8">
+    <row r="353" spans="1:8">
       <c r="A353" t="s">
         <v>12</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:8">
+    <row r="354" spans="1:8">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:8">
+    <row r="355" spans="1:8">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="1:8">
+    <row r="356" spans="1:8">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="1:8">
+    <row r="459" spans="1:8">
       <c r="A459" t="s">
         <v>70</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:8">
+    <row r="462" spans="1:8">
       <c r="A462" t="s">
         <v>12</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:8">
+    <row r="464" spans="1:8">
       <c r="A464" t="s">
         <v>70</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:8">
+    <row r="465" spans="1:8">
       <c r="A465" t="s">
         <v>70</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="1:9">
+    <row r="477" spans="1:9">
       <c r="A477" t="s">
         <v>542</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="1:9">
+    <row r="478" spans="1:9">
       <c r="A478" t="s">
         <v>319</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:8">
+    <row r="491" spans="1:8">
       <c r="A491" t="s">
         <v>12</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="493" hidden="1" spans="1:9">
+    <row r="493" spans="1:9">
       <c r="A493" t="s">
         <v>300</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" hidden="1" spans="1:8">
+    <row r="494" spans="1:8">
       <c r="A494" t="s">
         <v>12</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" hidden="1" spans="1:8">
+    <row r="495" spans="1:8">
       <c r="A495" t="s">
         <v>70</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="1:8">
+    <row r="496" spans="1:8">
       <c r="A496" t="s">
         <v>70</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:9">
+    <row r="517" spans="1:9">
       <c r="A517" t="s">
         <v>300</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:9">
+    <row r="518" spans="1:9">
       <c r="A518" t="s">
         <v>300</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:8">
+    <row r="519" spans="1:8">
       <c r="A519" t="s">
         <v>10</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:9">
+    <row r="520" spans="1:9">
       <c r="A520" t="s">
         <v>70</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:9">
+    <row r="521" spans="1:9">
       <c r="A521" t="s">
         <v>12</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:8">
+    <row r="526" spans="1:8">
       <c r="A526" t="s">
         <v>10</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:8">
+    <row r="528" spans="1:8">
       <c r="A528" t="s">
         <v>12</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" hidden="1" spans="1:8">
+    <row r="529" spans="1:8">
       <c r="A529" t="s">
         <v>12</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="1:8">
+    <row r="530" spans="1:8">
       <c r="A530" t="s">
         <v>12</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:8">
+    <row r="531" spans="1:8">
       <c r="A531" t="s">
         <v>12</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:8">
+    <row r="532" spans="1:8">
       <c r="A532" t="s">
         <v>12</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="1:8">
+    <row r="536" spans="1:8">
       <c r="A536" t="s">
         <v>12</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="1:9">
+    <row r="542" spans="1:9">
       <c r="A542" t="s">
         <v>300</v>
       </c>
@@ -15353,7 +15353,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="1:8">
+    <row r="548" spans="1:8">
       <c r="A548" t="s">
         <v>12</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="550" hidden="1" spans="1:9">
+    <row r="550" spans="1:9">
       <c r="A550" t="s">
         <v>319</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="556" hidden="1" spans="1:8">
+    <row r="556" spans="1:8">
       <c r="A556" t="s">
         <v>12</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="560" spans="3:14">
+    <row r="560" hidden="1" spans="3:14">
       <c r="C560" t="s">
         <v>641</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="562" spans="3:12">
+    <row r="562" hidden="1" spans="3:12">
       <c r="C562" t="s">
         <v>643</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="563" spans="3:13">
+    <row r="563" hidden="1" spans="3:13">
       <c r="C563" t="s">
         <v>644</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="565" spans="3:12">
+    <row r="565" hidden="1" spans="3:12">
       <c r="C565" t="s">
         <v>646</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="566" spans="3:13">
+    <row r="566" hidden="1" spans="3:13">
       <c r="C566" t="s">
         <v>647</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="567" spans="3:12">
+    <row r="567" hidden="1" spans="3:12">
       <c r="C567" t="s">
         <v>648</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="568" spans="3:12">
+    <row r="568" hidden="1" spans="3:12">
       <c r="C568" t="s">
         <v>649</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="569" spans="3:13">
+    <row r="569" hidden="1" spans="3:13">
       <c r="C569" t="s">
         <v>650</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="570" spans="3:14">
+    <row r="570" hidden="1" spans="3:14">
       <c r="C570" t="s">
         <v>651</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="571" spans="3:13">
+    <row r="571" hidden="1" spans="3:13">
       <c r="C571" t="s">
         <v>652</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="572" spans="3:12">
+    <row r="572" hidden="1" spans="3:12">
       <c r="C572" t="s">
         <v>653</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="574" spans="3:13">
+    <row r="574" hidden="1" spans="3:13">
       <c r="C574" t="s">
         <v>656</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="575" spans="3:13">
+    <row r="575" hidden="1" spans="3:13">
       <c r="C575" t="s">
         <v>657</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="576" spans="3:13">
+    <row r="576" hidden="1" spans="3:13">
       <c r="C576" t="s">
         <v>658</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="577" spans="3:14">
+    <row r="577" hidden="1" spans="3:14">
       <c r="C577" t="s">
         <v>659</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="578" spans="3:12">
+    <row r="578" hidden="1" spans="3:12">
       <c r="C578" t="s">
         <v>660</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="579" spans="3:12">
+    <row r="579" hidden="1" spans="3:12">
       <c r="C579" t="s">
         <v>661</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="580" spans="3:13">
+    <row r="580" hidden="1" spans="3:13">
       <c r="C580" t="s">
         <v>662</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="581" spans="3:13">
+    <row r="581" hidden="1" spans="3:13">
       <c r="C581" t="s">
         <v>663</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="582" spans="3:12">
+    <row r="582" hidden="1" spans="3:12">
       <c r="C582" t="s">
         <v>664</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="583" spans="3:12">
+    <row r="583" hidden="1" spans="3:12">
       <c r="C583" t="s">
         <v>665</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="584" spans="3:13">
+    <row r="584" hidden="1" spans="3:13">
       <c r="C584" t="s">
         <v>666</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="585" spans="3:12">
+    <row r="585" hidden="1" spans="3:12">
       <c r="C585" t="s">
         <v>667</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="589" hidden="1" spans="1:8">
+    <row r="589" spans="1:8">
       <c r="A589" t="s">
         <v>70</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="594" hidden="1" spans="1:8">
+    <row r="594" spans="1:8">
       <c r="A594" t="s">
         <v>10</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" hidden="1" spans="1:9">
+    <row r="595" spans="1:9">
       <c r="A595" t="s">
         <v>319</v>
       </c>
@@ -16608,7 +16608,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="598" hidden="1" spans="1:8">
+    <row r="598" spans="1:8">
       <c r="A598" t="s">
         <v>12</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="602" hidden="1" spans="1:8">
+    <row r="602" spans="1:8">
       <c r="A602" t="s">
         <v>10</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="604" hidden="1" spans="1:8">
+    <row r="604" spans="1:8">
       <c r="A604" t="s">
         <v>10</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="2:9">
+    <row r="607" spans="2:9">
       <c r="B607" t="s">
         <v>38</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="619" hidden="1" spans="1:9">
+    <row r="619" spans="1:9">
       <c r="A619" t="s">
         <v>319</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="1:9">
+    <row r="623" spans="1:9">
       <c r="A623" t="s">
         <v>12</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="1:8">
+    <row r="634" spans="1:8">
       <c r="A634" t="s">
         <v>10</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="636" hidden="1" spans="1:8">
+    <row r="636" spans="1:8">
       <c r="A636" t="s">
         <v>10</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" hidden="1" spans="1:8">
+    <row r="637" spans="1:8">
       <c r="A637" t="s">
         <v>12</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="1:8">
+    <row r="638" spans="1:8">
       <c r="A638" t="s">
         <v>10</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" hidden="1" spans="1:8">
+    <row r="639" spans="1:8">
       <c r="A639" t="s">
         <v>12</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" hidden="1" spans="1:9">
+    <row r="640" spans="1:9">
       <c r="A640" t="s">
         <v>319</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="642" hidden="1" spans="1:8">
+    <row r="642" spans="1:8">
       <c r="A642" t="s">
         <v>12</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="644" hidden="1" spans="1:8">
+    <row r="644" spans="1:8">
       <c r="A644" t="s">
         <v>12</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="650" hidden="1" spans="1:8">
+    <row r="650" spans="1:8">
       <c r="A650" t="s">
         <v>12</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" hidden="1" spans="1:8">
+    <row r="651" spans="1:8">
       <c r="A651" t="s">
         <v>12</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="656" hidden="1" spans="1:8">
+    <row r="656" spans="1:8">
       <c r="A656" t="s">
         <v>10</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" hidden="1" spans="1:8">
+    <row r="657" spans="1:8">
       <c r="A657" t="s">
         <v>10</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="659" hidden="1" spans="1:8">
+    <row r="659" spans="1:8">
       <c r="A659" t="s">
         <v>10</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" hidden="1" spans="1:8">
+    <row r="660" spans="1:8">
       <c r="A660" t="s">
         <v>10</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="664" hidden="1" spans="1:8">
+    <row r="664" spans="1:8">
       <c r="A664" t="s">
         <v>12</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="667" hidden="1" spans="1:8">
+    <row r="667" spans="1:8">
       <c r="A667" t="s">
         <v>10</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" hidden="1" spans="2:9">
+    <row r="668" spans="2:9">
       <c r="B668" t="s">
         <v>38</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" hidden="1" spans="2:9">
+    <row r="669" spans="2:9">
       <c r="B669" t="s">
         <v>38</v>
       </c>
@@ -18699,7 +18699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" hidden="1" spans="1:8">
+    <row r="670" spans="1:8">
       <c r="A670" t="s">
         <v>10</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="676" hidden="1" spans="2:9">
+    <row r="676" spans="2:9">
       <c r="B676" t="s">
         <v>38</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" hidden="1" spans="1:8">
+    <row r="677" spans="1:8">
       <c r="A677" t="s">
         <v>12</v>
       </c>
@@ -18929,7 +18929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" hidden="1" spans="1:8">
+    <row r="678" spans="1:8">
       <c r="A678" t="s">
         <v>12</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" hidden="1" spans="1:8">
+    <row r="679" spans="1:8">
       <c r="A679" t="s">
         <v>10</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="1:8">
+    <row r="682" spans="1:8">
       <c r="A682" t="s">
         <v>10</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" hidden="1" spans="1:8">
+    <row r="683" spans="1:8">
       <c r="A683" t="s">
         <v>10</v>
       </c>
@@ -20355,7 +20355,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="724" hidden="1" spans="1:8">
+    <row r="724" spans="1:8">
       <c r="A724" t="s">
         <v>12</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" hidden="1" spans="2:9">
+    <row r="725" spans="2:9">
       <c r="B725" t="s">
         <v>38</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="732" spans="3:12">
+    <row r="732" hidden="1" spans="3:12">
       <c r="C732" t="s">
         <v>830</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="733" spans="3:12">
+    <row r="733" hidden="1" spans="3:12">
       <c r="C733" t="s">
         <v>831</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="734" hidden="1" spans="1:9">
+    <row r="734" spans="1:9">
       <c r="A734" t="s">
         <v>319</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" hidden="1" spans="1:9">
+    <row r="735" spans="1:9">
       <c r="A735" t="s">
         <v>300</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" hidden="1" spans="1:9">
+    <row r="736" spans="1:9">
       <c r="A736" t="s">
         <v>300</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" hidden="1" spans="1:9">
+    <row r="737" spans="1:9">
       <c r="A737" t="s">
         <v>300</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" hidden="1" spans="1:9">
+    <row r="738" spans="1:9">
       <c r="A738" t="s">
         <v>300</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" hidden="1" spans="1:9">
+    <row r="739" spans="1:9">
       <c r="A739" t="s">
         <v>300</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" hidden="1" spans="1:9">
+    <row r="740" spans="1:9">
       <c r="A740" t="s">
         <v>319</v>
       </c>
@@ -20849,7 +20849,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="742" spans="3:12">
+    <row r="742" hidden="1" spans="3:12">
       <c r="C742" t="s">
         <v>842</v>
       </c>
@@ -20864,7 +20864,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="743" spans="3:12">
+    <row r="743" hidden="1" spans="3:12">
       <c r="C743" t="s">
         <v>843</v>
       </c>
@@ -20879,7 +20879,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="744" spans="3:12">
+    <row r="744" hidden="1" spans="3:12">
       <c r="C744" t="s">
         <v>844</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="745" spans="3:12">
+    <row r="745" hidden="1" spans="3:12">
       <c r="C745" t="s">
         <v>845</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="746" spans="3:12">
+    <row r="746" hidden="1" spans="3:12">
       <c r="C746" t="s">
         <v>846</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="747" spans="3:12">
+    <row r="747" hidden="1" spans="3:12">
       <c r="C747" t="s">
         <v>847</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="748" hidden="1" spans="2:9">
+    <row r="748" spans="2:9">
       <c r="B748" t="s">
         <v>38</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="750" spans="3:12">
+    <row r="750" hidden="1" spans="3:12">
       <c r="C750" t="s">
         <v>850</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="752" hidden="1" spans="1:9">
+    <row r="752" spans="1:9">
       <c r="A752" t="s">
         <v>319</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="3:12">
+    <row r="753" hidden="1" spans="3:12">
       <c r="C753" t="s">
         <v>853</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="754" hidden="1" spans="1:9">
+    <row r="754" spans="1:9">
       <c r="A754" t="s">
         <v>319</v>
       </c>
@@ -21074,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="3:13">
+    <row r="755" hidden="1" spans="3:13">
       <c r="C755" t="s">
         <v>855</v>
       </c>
@@ -21092,7 +21092,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="756" spans="3:12">
+    <row r="756" hidden="1" spans="3:12">
       <c r="C756" t="s">
         <v>856</v>
       </c>
@@ -21107,7 +21107,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="757" spans="3:12">
+    <row r="757" hidden="1" spans="3:12">
       <c r="C757" t="s">
         <v>857</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="758" spans="3:12">
+    <row r="758" hidden="1" spans="3:12">
       <c r="C758" t="s">
         <v>858</v>
       </c>
@@ -21137,7 +21137,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="759" spans="1:13">
+    <row r="759" hidden="1" spans="1:13">
       <c r="A759" t="s">
         <v>859</v>
       </c>
@@ -21158,7 +21158,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="760" spans="3:13">
+    <row r="760" hidden="1" spans="3:13">
       <c r="C760" t="s">
         <v>861</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="761" spans="3:13">
+    <row r="761" hidden="1" spans="3:13">
       <c r="C761" t="s">
         <v>862</v>
       </c>
@@ -21194,7 +21194,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="762" spans="3:12">
+    <row r="762" hidden="1" spans="3:12">
       <c r="C762" t="s">
         <v>863</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="763" spans="3:13">
+    <row r="763" hidden="1" spans="3:13">
       <c r="C763" t="s">
         <v>864</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="764" spans="3:13">
+    <row r="764" hidden="1" spans="3:13">
       <c r="C764" t="s">
         <v>865</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="765" hidden="1" spans="1:9">
+    <row r="765" spans="1:9">
       <c r="A765" t="s">
         <v>319</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="3:12">
+    <row r="766" hidden="1" spans="3:12">
       <c r="C766" t="s">
         <v>867</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="768" spans="3:15">
+    <row r="768" hidden="1" spans="3:15">
       <c r="C768" t="s">
         <v>869</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="770" spans="3:12">
+    <row r="770" hidden="1" spans="3:12">
       <c r="C770" t="s">
         <v>871</v>
       </c>
@@ -21360,7 +21360,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="771" spans="3:12">
+    <row r="771" hidden="1" spans="3:12">
       <c r="C771" t="s">
         <v>872</v>
       </c>
@@ -21375,7 +21375,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="772" spans="3:12">
+    <row r="772" hidden="1" spans="3:12">
       <c r="C772" t="s">
         <v>873</v>
       </c>
@@ -21390,7 +21390,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="773" spans="3:12">
+    <row r="773" hidden="1" spans="3:12">
       <c r="C773" t="s">
         <v>874</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="774" spans="3:12">
+    <row r="774" hidden="1" spans="3:12">
       <c r="C774" t="s">
         <v>875</v>
       </c>
@@ -21420,7 +21420,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="775" spans="3:12">
+    <row r="775" hidden="1" spans="3:12">
       <c r="C775" t="s">
         <v>876</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="777" hidden="1" spans="1:9">
+    <row r="777" spans="1:9">
       <c r="A777" t="s">
         <v>12</v>
       </c>
@@ -21496,7 +21496,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="779" spans="3:13">
+    <row r="779" hidden="1" spans="3:13">
       <c r="C779" t="s">
         <v>880</v>
       </c>
@@ -21514,7 +21514,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="780" spans="3:13">
+    <row r="780" hidden="1" spans="3:13">
       <c r="C780" t="s">
         <v>881</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="781" spans="3:12">
+    <row r="781" hidden="1" spans="3:12">
       <c r="C781" t="s">
         <v>882</v>
       </c>
@@ -21581,7 +21581,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="783" hidden="1" spans="1:9">
+    <row r="783" spans="1:9">
       <c r="A783" t="s">
         <v>12</v>
       </c>
@@ -21627,7 +21627,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="785" hidden="1" spans="1:9">
+    <row r="785" spans="1:9">
       <c r="A785" t="s">
         <v>319</v>
       </c>
@@ -21658,7 +21658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" hidden="1" spans="1:9">
+    <row r="786" spans="1:9">
       <c r="A786" t="s">
         <v>319</v>
       </c>
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="3:12">
+    <row r="787" hidden="1" spans="3:12">
       <c r="C787" t="s">
         <v>888</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="789" spans="3:12">
+    <row r="789" hidden="1" spans="3:12">
       <c r="C789" t="s">
         <v>890</v>
       </c>
@@ -21749,7 +21749,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="791" spans="3:12">
+    <row r="791" hidden="1" spans="3:12">
       <c r="C791" t="s">
         <v>892</v>
       </c>
@@ -21764,7 +21764,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="792" spans="3:12">
+    <row r="792" hidden="1" spans="3:12">
       <c r="C792" t="s">
         <v>893</v>
       </c>
@@ -21812,7 +21812,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="795" spans="3:12">
+    <row r="795" hidden="1" spans="3:12">
       <c r="C795" t="s">
         <v>896</v>
       </c>
@@ -21857,7 +21857,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="798" spans="3:12">
+    <row r="798" hidden="1" spans="3:12">
       <c r="C798" t="s">
         <v>899</v>
       </c>
@@ -21872,7 +21872,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="799" hidden="1" spans="1:9">
+    <row r="799" spans="1:9">
       <c r="A799" t="s">
         <v>319</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="3:12">
+    <row r="800" hidden="1" spans="3:12">
       <c r="C800" t="s">
         <v>901</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="801" spans="3:12">
+    <row r="801" hidden="1" spans="3:12">
       <c r="C801" t="s">
         <v>902</v>
       </c>
@@ -21963,7 +21963,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="804" spans="3:12">
+    <row r="804" hidden="1" spans="3:12">
       <c r="C804" t="s">
         <v>905</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="805" spans="3:12">
+    <row r="805" hidden="1" spans="3:12">
       <c r="C805" t="s">
         <v>906</v>
       </c>
@@ -22008,7 +22008,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="807" spans="3:12">
+    <row r="807" hidden="1" spans="3:12">
       <c r="C807" t="s">
         <v>908</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="808" spans="3:12">
+    <row r="808" hidden="1" spans="3:12">
       <c r="C808" t="s">
         <v>909</v>
       </c>
@@ -22038,7 +22038,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="809" spans="3:12">
+    <row r="809" hidden="1" spans="3:12">
       <c r="C809" t="s">
         <v>910</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="810" spans="3:14">
+    <row r="810" hidden="1" spans="3:14">
       <c r="C810" t="s">
         <v>911</v>
       </c>
@@ -22074,7 +22074,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="811" hidden="1" spans="1:9">
+    <row r="811" spans="1:9">
       <c r="A811" t="s">
         <v>319</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" hidden="1" spans="1:9">
+    <row r="812" spans="1:9">
       <c r="A812" t="s">
         <v>12</v>
       </c>
@@ -22136,7 +22136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="3:13">
+    <row r="813" hidden="1" spans="3:13">
       <c r="C813" t="s">
         <v>914</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="818" hidden="1" spans="1:9">
+    <row r="818" spans="1:9">
       <c r="A818" t="s">
         <v>12</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="3:12">
+    <row r="819" hidden="1" spans="3:12">
       <c r="C819" t="s">
         <v>921</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="822" spans="3:12">
+    <row r="822" hidden="1" spans="3:12">
       <c r="C822" t="s">
         <v>925</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="824" spans="3:12">
+    <row r="824" hidden="1" spans="3:12">
       <c r="C824" t="s">
         <v>927</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="825" spans="3:12">
+    <row r="825" hidden="1" spans="3:12">
       <c r="C825" t="s">
         <v>928</v>
       </c>
@@ -22391,7 +22391,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="826" spans="3:13">
+    <row r="826" hidden="1" spans="3:13">
       <c r="C826" t="s">
         <v>929</v>
       </c>
@@ -22492,7 +22492,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="830" hidden="1" spans="1:9">
+    <row r="830" spans="1:9">
       <c r="A830" t="s">
         <v>300</v>
       </c>
@@ -22523,7 +22523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" hidden="1" spans="1:9">
+    <row r="831" spans="1:9">
       <c r="A831" t="s">
         <v>319</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="3:13">
+    <row r="832" hidden="1" spans="3:13">
       <c r="C832" t="s">
         <v>936</v>
       </c>
@@ -22569,7 +22569,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="833" hidden="1" spans="1:9">
+    <row r="833" spans="1:9">
       <c r="A833" t="s">
         <v>319</v>
       </c>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="3:13">
+    <row r="834" hidden="1" spans="3:13">
       <c r="C834" t="s">
         <v>938</v>
       </c>
@@ -22618,7 +22618,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="835" hidden="1" spans="1:9">
+    <row r="835" spans="1:9">
       <c r="A835" t="s">
         <v>319</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="3:13">
+    <row r="836" hidden="1" spans="3:13">
       <c r="C836" t="s">
         <v>940</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="837" spans="3:13">
+    <row r="837" hidden="1" spans="3:13">
       <c r="C837" t="s">
         <v>941</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="838" spans="3:13">
+    <row r="838" hidden="1" spans="3:13">
       <c r="C838" t="s">
         <v>942</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="839" spans="3:12">
+    <row r="839" hidden="1" spans="3:12">
       <c r="C839" t="s">
         <v>943</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="847" spans="3:12">
+    <row r="847" hidden="1" spans="3:12">
       <c r="C847" t="s">
         <v>951</v>
       </c>
@@ -22844,7 +22844,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="848" hidden="1" spans="1:9">
+    <row r="848" spans="1:9">
       <c r="A848" t="s">
         <v>319</v>
       </c>
@@ -22872,7 +22872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="3:12">
+    <row r="849" hidden="1" spans="3:12">
       <c r="C849" t="s">
         <v>953</v>
       </c>
@@ -22947,7 +22947,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="854" hidden="1" spans="1:9">
+    <row r="854" spans="1:9">
       <c r="A854" t="s">
         <v>12</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="857" spans="3:12">
+    <row r="857" hidden="1" spans="3:12">
       <c r="C857" t="s">
         <v>961</v>
       </c>
@@ -23084,7 +23084,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="861" spans="3:12">
+    <row r="861" hidden="1" spans="3:12">
       <c r="C861" t="s">
         <v>965</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="863" hidden="1" spans="1:9">
+    <row r="863" spans="1:9">
       <c r="A863" t="s">
         <v>12</v>
       </c>
@@ -23142,7 +23142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="3:13">
+    <row r="864" hidden="1" spans="3:13">
       <c r="C864" t="s">
         <v>968</v>
       </c>
@@ -23175,7 +23175,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="866" spans="3:12">
+    <row r="866" hidden="1" spans="3:12">
       <c r="C866" t="s">
         <v>971</v>
       </c>
@@ -23190,7 +23190,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="867" spans="3:13">
+    <row r="867" hidden="1" spans="3:13">
       <c r="C867" t="s">
         <v>972</v>
       </c>
@@ -23208,7 +23208,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="868" spans="3:12">
+    <row r="868" hidden="1" spans="3:12">
       <c r="C868" t="s">
         <v>973</v>
       </c>
@@ -23223,7 +23223,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="869" spans="3:14">
+    <row r="869" hidden="1" spans="3:14">
       <c r="C869" t="s">
         <v>974</v>
       </c>
@@ -23244,7 +23244,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="870" spans="3:13">
+    <row r="870" hidden="1" spans="3:13">
       <c r="C870" t="s">
         <v>975</v>
       </c>
@@ -23262,7 +23262,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="871" spans="3:14">
+    <row r="871" hidden="1" spans="3:14">
       <c r="C871" t="s">
         <v>976</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="873" spans="3:12">
+    <row r="873" hidden="1" spans="3:12">
       <c r="C873" t="s">
         <v>978</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="874" spans="3:13">
+    <row r="874" hidden="1" spans="3:13">
       <c r="C874" t="s">
         <v>979</v>
       </c>
@@ -23331,7 +23331,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="875" spans="3:13">
+    <row r="875" hidden="1" spans="3:13">
       <c r="C875" t="s">
         <v>980</v>
       </c>
@@ -23349,7 +23349,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="876" spans="3:12">
+    <row r="876" hidden="1" spans="3:12">
       <c r="C876" t="s">
         <v>981</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="878" spans="3:12">
+    <row r="878" hidden="1" spans="3:12">
       <c r="C878" t="s">
         <v>983</v>
       </c>
@@ -23394,7 +23394,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="879" spans="3:14">
+    <row r="879" hidden="1" spans="3:14">
       <c r="C879" t="s">
         <v>984</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="881" spans="3:12">
+    <row r="881" hidden="1" spans="3:12">
       <c r="C881" t="s">
         <v>986</v>
       </c>
@@ -23460,7 +23460,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="883" spans="3:12">
+    <row r="883" hidden="1" spans="3:12">
       <c r="C883" t="s">
         <v>988</v>
       </c>
@@ -23475,7 +23475,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="884" spans="3:13">
+    <row r="884" hidden="1" spans="3:13">
       <c r="C884" t="s">
         <v>989</v>
       </c>
@@ -23493,7 +23493,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="885" spans="3:12">
+    <row r="885" hidden="1" spans="3:12">
       <c r="C885" t="s">
         <v>990</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="886" spans="3:13">
+    <row r="886" hidden="1" spans="3:13">
       <c r="C886" t="s">
         <v>991</v>
       </c>
@@ -23526,7 +23526,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="887" spans="3:13">
+    <row r="887" hidden="1" spans="3:13">
       <c r="C887" t="s">
         <v>992</v>
       </c>
@@ -23544,7 +23544,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="888" spans="3:13">
+    <row r="888" hidden="1" spans="3:13">
       <c r="C888" t="s">
         <v>993</v>
       </c>
@@ -23562,7 +23562,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="889" spans="3:13">
+    <row r="889" hidden="1" spans="3:13">
       <c r="C889" t="s">
         <v>994</v>
       </c>
@@ -23595,7 +23595,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="891" spans="3:12">
+    <row r="891" hidden="1" spans="3:12">
       <c r="C891" t="s">
         <v>996</v>
       </c>
@@ -23625,7 +23625,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="893" spans="3:12">
+    <row r="893" hidden="1" spans="3:12">
       <c r="C893" t="s">
         <v>998</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="894" spans="3:13">
+    <row r="894" hidden="1" spans="3:13">
       <c r="C894" t="s">
         <v>999</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="897" spans="3:12">
+    <row r="897" hidden="1" spans="3:12">
       <c r="C897" t="s">
         <v>1002</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="898" spans="3:13">
+    <row r="898" hidden="1" spans="3:13">
       <c r="C898" t="s">
         <v>1003</v>
       </c>
@@ -23721,7 +23721,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="899" spans="3:12">
+    <row r="899" hidden="1" spans="3:12">
       <c r="C899" t="s">
         <v>1004</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="900" spans="3:12">
+    <row r="900" hidden="1" spans="3:12">
       <c r="C900" t="s">
         <v>1005</v>
       </c>
@@ -23751,7 +23751,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="901" spans="3:12">
+    <row r="901" hidden="1" spans="3:12">
       <c r="C901" t="s">
         <v>1006</v>
       </c>
@@ -23766,7 +23766,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="902" spans="3:12">
+    <row r="902" hidden="1" spans="3:12">
       <c r="C902" t="s">
         <v>1007</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="903" spans="3:13">
+    <row r="903" hidden="1" spans="3:13">
       <c r="C903" t="s">
         <v>1008</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="904" spans="3:12">
+    <row r="904" hidden="1" spans="3:12">
       <c r="C904" t="s">
         <v>1009</v>
       </c>
@@ -23859,7 +23859,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="908" spans="3:13">
+    <row r="908" hidden="1" spans="3:13">
       <c r="C908" t="s">
         <v>1013</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="909" hidden="1" spans="1:9">
+    <row r="909" spans="1:9">
       <c r="A909" t="s">
         <v>319</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="914" spans="3:14">
+    <row r="914" hidden="1" spans="3:14">
       <c r="C914" t="s">
         <v>1019</v>
       </c>
@@ -24040,7 +24040,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="915" spans="3:8">
+    <row r="915" hidden="1" spans="3:14">
       <c r="C915" t="s">
         <v>1020</v>
       </c>
@@ -24051,8 +24051,17 @@
         <f>COUNTIF(Hoja2!A:A,C915)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="916" spans="3:8">
+      <c r="L915" t="s">
+        <v>347</v>
+      </c>
+      <c r="M915" t="s">
+        <v>616</v>
+      </c>
+      <c r="N915" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="916" hidden="1" spans="3:13">
       <c r="C916" t="s">
         <v>1021</v>
       </c>
@@ -24063,8 +24072,14 @@
         <f>COUNTIF(Hoja2!A:A,C916)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="917" spans="3:8">
+      <c r="L916" t="s">
+        <v>616</v>
+      </c>
+      <c r="M916" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="917" hidden="1" spans="3:12">
       <c r="C917" t="s">
         <v>1022</v>
       </c>
@@ -24075,8 +24090,11 @@
         <f>COUNTIF(Hoja2!A:A,C917)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="918" spans="3:8">
+      <c r="L917" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="918" hidden="1" spans="3:12">
       <c r="C918" t="s">
         <v>1023</v>
       </c>
@@ -24087,8 +24105,11 @@
         <f>COUNTIF(Hoja2!A:A,C918)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="919" spans="3:8">
+      <c r="L918" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="919" hidden="1" spans="3:12">
       <c r="C919" t="s">
         <v>1024</v>
       </c>
@@ -24099,8 +24120,11 @@
         <f>COUNTIF(Hoja2!A:A,C919)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="920" spans="3:8">
+      <c r="L919" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="920" hidden="1" spans="3:13">
       <c r="C920" t="s">
         <v>1025</v>
       </c>
@@ -24111,8 +24135,14 @@
         <f>COUNTIF(Hoja2!A:A,C920)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="921" spans="3:8">
+      <c r="L920" t="s">
+        <v>347</v>
+      </c>
+      <c r="M920" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="921" hidden="1" spans="3:13">
       <c r="C921" t="s">
         <v>1026</v>
       </c>
@@ -24123,8 +24153,14 @@
         <f>COUNTIF(Hoja2!A:A,C921)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="922" spans="3:8">
+      <c r="L921" t="s">
+        <v>347</v>
+      </c>
+      <c r="M921" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="922" hidden="1" spans="3:13">
       <c r="C922" t="s">
         <v>1027</v>
       </c>
@@ -24135,8 +24171,14 @@
         <f>COUNTIF(Hoja2!A:A,C922)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="923" spans="3:8">
+      <c r="L922" t="s">
+        <v>616</v>
+      </c>
+      <c r="M922" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="923" hidden="1" spans="3:13">
       <c r="C923" t="s">
         <v>1028</v>
       </c>
@@ -24147,8 +24189,14 @@
         <f>COUNTIF(Hoja2!A:A,C923)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="924" spans="3:8">
+      <c r="L923" t="s">
+        <v>616</v>
+      </c>
+      <c r="M923" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="924" hidden="1" spans="3:13">
       <c r="C924" t="s">
         <v>1029</v>
       </c>
@@ -24159,8 +24207,14 @@
         <f>COUNTIF(Hoja2!A:A,C924)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="925" spans="3:8">
+      <c r="L924" t="s">
+        <v>408</v>
+      </c>
+      <c r="M924" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="925" hidden="1" spans="3:13">
       <c r="C925" t="s">
         <v>1030</v>
       </c>
@@ -24171,8 +24225,14 @@
         <f>COUNTIF(Hoja2!A:A,C925)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="926" spans="3:8">
+      <c r="L925" t="s">
+        <v>408</v>
+      </c>
+      <c r="M925" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="926" hidden="1" spans="3:13">
       <c r="C926" t="s">
         <v>1031</v>
       </c>
@@ -24183,8 +24243,14 @@
         <f>COUNTIF(Hoja2!A:A,C926)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="927" spans="3:8">
+      <c r="L926" t="s">
+        <v>408</v>
+      </c>
+      <c r="M926" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="927" hidden="1" spans="3:13">
       <c r="C927" t="s">
         <v>1032</v>
       </c>
@@ -24195,8 +24261,14 @@
         <f>COUNTIF(Hoja2!A:A,C927)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="928" spans="3:8">
+      <c r="L927" t="s">
+        <v>616</v>
+      </c>
+      <c r="M927" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="928" hidden="1" spans="3:12">
       <c r="C928" t="s">
         <v>1033</v>
       </c>
@@ -24207,8 +24279,11 @@
         <f>COUNTIF(Hoja2!A:A,C928)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="929" spans="3:8">
+      <c r="L928" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="929" hidden="1" spans="3:13">
       <c r="C929" t="s">
         <v>1034</v>
       </c>
@@ -24219,8 +24294,14 @@
         <f>COUNTIF(Hoja2!A:A,C929)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="930" spans="3:8">
+      <c r="L929" t="s">
+        <v>347</v>
+      </c>
+      <c r="M929" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="930" hidden="1" spans="3:12">
       <c r="C930" t="s">
         <v>1035</v>
       </c>
@@ -24231,8 +24312,11 @@
         <f>COUNTIF(Hoja2!A:A,C930)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="931" spans="3:8">
+      <c r="L930" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="931" hidden="1" spans="3:13">
       <c r="C931" t="s">
         <v>1036</v>
       </c>
@@ -24243,8 +24327,14 @@
         <f>COUNTIF(Hoja2!A:A,C931)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="932" spans="3:8">
+      <c r="L931" t="s">
+        <v>616</v>
+      </c>
+      <c r="M931" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="932" hidden="1" spans="3:12">
       <c r="C932" t="s">
         <v>1037</v>
       </c>
@@ -24255,8 +24345,11 @@
         <f>COUNTIF(Hoja2!A:A,C932)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="933" spans="3:8">
+      <c r="L932" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="933" hidden="1" spans="3:12">
       <c r="C933" t="s">
         <v>1038</v>
       </c>
@@ -24267,8 +24360,11 @@
         <f>COUNTIF(Hoja2!A:A,C933)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="934" spans="3:8">
+      <c r="L933" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="934" hidden="1" spans="3:12">
       <c r="C934" t="s">
         <v>1039</v>
       </c>
@@ -24279,8 +24375,11 @@
         <f>COUNTIF(Hoja2!A:A,C934)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="935" spans="3:8">
+      <c r="L934" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="935" hidden="1" spans="3:12">
       <c r="C935" t="s">
         <v>1040</v>
       </c>
@@ -24291,8 +24390,11 @@
         <f>COUNTIF(Hoja2!A:A,C935)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="936" spans="3:8">
+      <c r="L935" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="936" hidden="1" spans="3:13">
       <c r="C936" t="s">
         <v>1041</v>
       </c>
@@ -24303,8 +24405,14 @@
         <f>COUNTIF(Hoja2!A:A,C936)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="937" spans="3:8">
+      <c r="L936" t="s">
+        <v>616</v>
+      </c>
+      <c r="M936" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="937" hidden="1" spans="3:12">
       <c r="C937" t="s">
         <v>1042</v>
       </c>
@@ -24315,8 +24423,11 @@
         <f>COUNTIF(Hoja2!A:A,C937)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="938" spans="3:8">
+      <c r="L937" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="938" hidden="1" spans="3:12">
       <c r="C938" t="s">
         <v>1043</v>
       </c>
@@ -24327,8 +24438,11 @@
         <f>COUNTIF(Hoja2!A:A,C938)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="939" spans="3:8">
+      <c r="L938" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="939" hidden="1" spans="3:12">
       <c r="C939" t="s">
         <v>1044</v>
       </c>
@@ -24339,8 +24453,11 @@
         <f>COUNTIF(Hoja2!A:A,C939)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="940" hidden="1" spans="1:9">
+      <c r="L939" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9">
       <c r="A940" t="s">
         <v>12</v>
       </c>
@@ -24365,7 +24482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="3:8">
+    <row r="941" hidden="1" spans="3:14">
       <c r="C941" t="s">
         <v>1046</v>
       </c>
@@ -24376,8 +24493,17 @@
         <f>COUNTIF(Hoja2!A:A,C941)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="942" spans="3:8">
+      <c r="L941" t="s">
+        <v>408</v>
+      </c>
+      <c r="M941" t="s">
+        <v>519</v>
+      </c>
+      <c r="N941" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="942" hidden="1" spans="3:12">
       <c r="C942" t="s">
         <v>1047</v>
       </c>
@@ -24388,8 +24514,11 @@
         <f>COUNTIF(Hoja2!A:A,C942)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="943" spans="3:8">
+      <c r="L942" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="943" hidden="1" spans="3:12">
       <c r="C943" t="s">
         <v>1048</v>
       </c>
@@ -24400,8 +24529,11 @@
         <f>COUNTIF(Hoja2!A:A,C943)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="944" spans="3:8">
+      <c r="L943" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="944" hidden="1" spans="3:13">
       <c r="C944" t="s">
         <v>1049</v>
       </c>
@@ -24412,8 +24544,14 @@
         <f>COUNTIF(Hoja2!A:A,C944)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="945" spans="3:8">
+      <c r="L944" t="s">
+        <v>347</v>
+      </c>
+      <c r="M944" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="945" hidden="1" spans="3:12">
       <c r="C945" t="s">
         <v>1050</v>
       </c>
@@ -24424,8 +24562,11 @@
         <f>COUNTIF(Hoja2!A:A,C945)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="946" spans="3:8">
+      <c r="L945" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="946" hidden="1" spans="3:12">
       <c r="C946" t="s">
         <v>1051</v>
       </c>
@@ -24436,8 +24577,11 @@
         <f>COUNTIF(Hoja2!A:A,C946)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="947" spans="3:8">
+      <c r="L946" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="947" hidden="1" spans="3:12">
       <c r="C947" t="s">
         <v>1052</v>
       </c>
@@ -24448,8 +24592,11 @@
         <f>COUNTIF(Hoja2!A:A,C947)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="948" spans="3:8">
+      <c r="L947" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="948" hidden="1" spans="3:13">
       <c r="C948" t="s">
         <v>1053</v>
       </c>
@@ -24460,8 +24607,14 @@
         <f>COUNTIF(Hoja2!A:A,C948)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="949" spans="3:8">
+      <c r="L948" t="s">
+        <v>616</v>
+      </c>
+      <c r="M948" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="949" hidden="1" spans="3:13">
       <c r="C949" t="s">
         <v>1054</v>
       </c>
@@ -24472,8 +24625,14 @@
         <f>COUNTIF(Hoja2!A:A,C949)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="950" spans="3:8">
+      <c r="L949" t="s">
+        <v>519</v>
+      </c>
+      <c r="M949" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="950" hidden="1" spans="3:12">
       <c r="C950" t="s">
         <v>1055</v>
       </c>
@@ -24484,8 +24643,11 @@
         <f>COUNTIF(Hoja2!A:A,C950)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="951" spans="3:8">
+      <c r="L950" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="951" hidden="1" spans="3:12">
       <c r="C951" t="s">
         <v>1056</v>
       </c>
@@ -24496,8 +24658,11 @@
         <f>COUNTIF(Hoja2!A:A,C951)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="952" spans="3:8">
+      <c r="L951" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="952" hidden="1" spans="3:13">
       <c r="C952" t="s">
         <v>1057</v>
       </c>
@@ -24508,8 +24673,14 @@
         <f>COUNTIF(Hoja2!A:A,C952)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="953" spans="3:8">
+      <c r="L952" t="s">
+        <v>616</v>
+      </c>
+      <c r="M952" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="953" hidden="1" spans="3:12">
       <c r="C953" t="s">
         <v>1058</v>
       </c>
@@ -24520,8 +24691,11 @@
         <f>COUNTIF(Hoja2!A:A,C953)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="954" spans="3:8">
+      <c r="L953" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="954" hidden="1" spans="3:12">
       <c r="C954" t="s">
         <v>1059</v>
       </c>
@@ -24532,8 +24706,11 @@
         <f>COUNTIF(Hoja2!A:A,C954)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="955" spans="3:8">
+      <c r="L954" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="955" hidden="1" spans="3:13">
       <c r="C955" t="s">
         <v>1060</v>
       </c>
@@ -24544,8 +24721,14 @@
         <f>COUNTIF(Hoja2!A:A,C955)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="956" spans="3:8">
+      <c r="L955" t="s">
+        <v>616</v>
+      </c>
+      <c r="M955" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="956" hidden="1" spans="3:13">
       <c r="C956" t="s">
         <v>1061</v>
       </c>
@@ -24556,8 +24739,14 @@
         <f>COUNTIF(Hoja2!A:A,C956)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="957" spans="3:8">
+      <c r="L956" t="s">
+        <v>569</v>
+      </c>
+      <c r="M956" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="957" hidden="1" spans="3:12">
       <c r="C957" t="s">
         <v>1062</v>
       </c>
@@ -24568,8 +24757,11 @@
         <f>COUNTIF(Hoja2!A:A,C957)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="958" spans="3:8">
+      <c r="L957" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="958" hidden="1" spans="3:14">
       <c r="C958" t="s">
         <v>1063</v>
       </c>
@@ -24580,8 +24772,17 @@
         <f>COUNTIF(Hoja2!A:A,C958)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="959" spans="3:8">
+      <c r="L958" t="s">
+        <v>617</v>
+      </c>
+      <c r="M958" t="s">
+        <v>347</v>
+      </c>
+      <c r="N958" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="959" hidden="1" spans="3:13">
       <c r="C959" t="s">
         <v>1064</v>
       </c>
@@ -24592,8 +24793,14 @@
         <f>COUNTIF(Hoja2!A:A,C959)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="960" spans="3:8">
+      <c r="L959" t="s">
+        <v>569</v>
+      </c>
+      <c r="M959" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="960" hidden="1" spans="3:12">
       <c r="C960" t="s">
         <v>1065</v>
       </c>
@@ -24604,8 +24811,11 @@
         <f>COUNTIF(Hoja2!A:A,C960)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="961" spans="3:8">
+      <c r="L960" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="961" hidden="1" spans="3:12">
       <c r="C961" t="s">
         <v>1066</v>
       </c>
@@ -24616,8 +24826,11 @@
         <f>COUNTIF(Hoja2!A:A,C961)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="962" spans="3:8">
+      <c r="L961" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="962" hidden="1" spans="3:13">
       <c r="C962" t="s">
         <v>1067</v>
       </c>
@@ -24628,8 +24841,14 @@
         <f>COUNTIF(Hoja2!A:A,C962)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="963" spans="3:8">
+      <c r="L962" t="s">
+        <v>616</v>
+      </c>
+      <c r="M962" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="963" hidden="1" spans="3:12">
       <c r="C963" t="s">
         <v>1068</v>
       </c>
@@ -24640,8 +24859,11 @@
         <f>COUNTIF(Hoja2!A:A,C963)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="964" spans="3:8">
+      <c r="L963" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="964" hidden="1" spans="3:12">
       <c r="C964" t="s">
         <v>1069</v>
       </c>
@@ -24652,8 +24874,11 @@
         <f>COUNTIF(Hoja2!A:A,C964)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="965" spans="3:8">
+      <c r="L964" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="965" hidden="1" spans="3:12">
       <c r="C965" t="s">
         <v>1070</v>
       </c>
@@ -24664,8 +24889,11 @@
         <f>COUNTIF(Hoja2!A:A,C965)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="966" spans="3:8">
+      <c r="L965" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="966" hidden="1" spans="3:13">
       <c r="C966" t="s">
         <v>1071</v>
       </c>
@@ -24675,6 +24903,12 @@
       <c r="H966">
         <f>COUNTIF(Hoja2!A:A,C966)</f>
         <v>1</v>
+      </c>
+      <c r="L966" t="s">
+        <v>406</v>
+      </c>
+      <c r="M966" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="967" hidden="1" spans="1:12">
@@ -24708,7 +24942,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="968" spans="3:8">
+    <row r="968" hidden="1" spans="3:12">
       <c r="C968" t="s">
         <v>1073</v>
       </c>
@@ -24719,8 +24953,11 @@
         <f>COUNTIF(Hoja2!A:A,C968)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="969" spans="3:8">
+      <c r="L968" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="969" hidden="1" spans="3:12">
       <c r="C969" t="s">
         <v>1074</v>
       </c>
@@ -24731,8 +24968,11 @@
         <f>COUNTIF(Hoja2!A:A,C969)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="970" spans="3:8">
+      <c r="L969" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="970" hidden="1" spans="3:12">
       <c r="C970" t="s">
         <v>1075</v>
       </c>
@@ -24742,6 +24982,9 @@
       <c r="H970">
         <f>COUNTIF(Hoja2!A:A,C970)</f>
         <v>1</v>
+      </c>
+      <c r="L970" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="971" hidden="1" spans="1:12">
@@ -24775,7 +25018,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="972" spans="3:8">
+    <row r="972" hidden="1" spans="3:12">
       <c r="C972" t="s">
         <v>1077</v>
       </c>
@@ -24786,8 +25029,11 @@
         <f>COUNTIF(Hoja2!A:A,C972)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="973" spans="3:8">
+      <c r="L972" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="973" hidden="1" spans="3:13">
       <c r="C973" t="s">
         <v>1078</v>
       </c>
@@ -24798,8 +25044,14 @@
         <f>COUNTIF(Hoja2!A:A,C973)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="974" spans="3:8">
+      <c r="L973" t="s">
+        <v>616</v>
+      </c>
+      <c r="M973" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="974" hidden="1" spans="3:12">
       <c r="C974" t="s">
         <v>1079</v>
       </c>
@@ -24810,8 +25062,11 @@
         <f>COUNTIF(Hoja2!A:A,C974)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="975" spans="3:8">
+      <c r="L974" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="975" hidden="1" spans="3:12">
       <c r="C975" t="s">
         <v>1080</v>
       </c>
@@ -24822,8 +25077,11 @@
         <f>COUNTIF(Hoja2!A:A,C975)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="976" spans="3:8">
+      <c r="L975" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="976" hidden="1" spans="3:12">
       <c r="C976" t="s">
         <v>1081</v>
       </c>
@@ -24834,8 +25092,11 @@
         <f>COUNTIF(Hoja2!A:A,C976)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="977" spans="3:8">
+      <c r="L976" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="977" hidden="1" spans="3:12">
       <c r="C977" t="s">
         <v>1082</v>
       </c>
@@ -24846,8 +25107,11 @@
         <f>COUNTIF(Hoja2!A:A,C977)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="978" spans="3:8">
+      <c r="L977" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="978" hidden="1" spans="3:12">
       <c r="C978" t="s">
         <v>1083</v>
       </c>
@@ -24858,8 +25122,11 @@
         <f>COUNTIF(Hoja2!A:A,C978)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="979" spans="3:8">
+      <c r="L978" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="979" hidden="1" spans="3:13">
       <c r="C979" t="s">
         <v>1084</v>
       </c>
@@ -24870,8 +25137,14 @@
         <f>COUNTIF(Hoja2!A:A,C979)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="980" spans="3:8">
+      <c r="L979" t="s">
+        <v>616</v>
+      </c>
+      <c r="M979" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="980" hidden="1" spans="3:12">
       <c r="C980" t="s">
         <v>1085</v>
       </c>
@@ -24882,8 +25155,11 @@
         <f>COUNTIF(Hoja2!A:A,C980)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="981" spans="3:8">
+      <c r="L980" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="981" hidden="1" spans="3:12">
       <c r="C981" t="s">
         <v>1086</v>
       </c>
@@ -24894,8 +25170,11 @@
         <f>COUNTIF(Hoja2!A:A,C981)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="982" spans="3:8">
+      <c r="L981" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="982" hidden="1" spans="3:12">
       <c r="C982" t="s">
         <v>1087</v>
       </c>
@@ -24906,8 +25185,11 @@
         <f>COUNTIF(Hoja2!A:A,C982)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="983" spans="3:8">
+      <c r="L982" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="983" hidden="1" spans="3:12">
       <c r="C983" t="s">
         <v>1088</v>
       </c>
@@ -24918,8 +25200,11 @@
         <f>COUNTIF(Hoja2!A:A,C983)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="984" spans="3:8">
+      <c r="L983" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="984" hidden="1" spans="3:12">
       <c r="C984" t="s">
         <v>1089</v>
       </c>
@@ -24930,8 +25215,11 @@
         <f>COUNTIF(Hoja2!A:A,C984)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="985" spans="3:8">
+      <c r="L984" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="985" hidden="1" spans="3:12">
       <c r="C985" t="s">
         <v>1090</v>
       </c>
@@ -24942,8 +25230,11 @@
         <f>COUNTIF(Hoja2!A:A,C985)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="986" spans="3:8">
+      <c r="L985" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="986" hidden="1" spans="3:12">
       <c r="C986" t="s">
         <v>1091</v>
       </c>
@@ -24954,8 +25245,11 @@
         <f>COUNTIF(Hoja2!A:A,C986)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="987" spans="3:8">
+      <c r="L986" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="987" hidden="1" spans="3:12">
       <c r="C987" t="s">
         <v>1092</v>
       </c>
@@ -24966,8 +25260,11 @@
         <f>COUNTIF(Hoja2!A:A,C987)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="988" spans="3:8">
+      <c r="L987" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="988" hidden="1" spans="3:12">
       <c r="C988" t="s">
         <v>1093</v>
       </c>
@@ -24978,8 +25275,11 @@
         <f>COUNTIF(Hoja2!A:A,C988)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="989" spans="3:8">
+      <c r="L988" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="989" hidden="1" spans="3:12">
       <c r="C989" t="s">
         <v>1094</v>
       </c>
@@ -24990,8 +25290,11 @@
         <f>COUNTIF(Hoja2!A:A,C989)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="990" spans="3:8">
+      <c r="L989" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="990" hidden="1" spans="3:12">
       <c r="C990" t="s">
         <v>1095</v>
       </c>
@@ -25002,8 +25305,11 @@
         <f>COUNTIF(Hoja2!A:A,C990)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="991" spans="3:8">
+      <c r="L990" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="991" hidden="1" spans="3:12">
       <c r="C991" t="s">
         <v>1096</v>
       </c>
@@ -25014,8 +25320,11 @@
         <f>COUNTIF(Hoja2!A:A,C991)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="992" spans="3:8">
+      <c r="L991" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="992" hidden="1" spans="3:12">
       <c r="C992" t="s">
         <v>1097</v>
       </c>
@@ -25026,8 +25335,11 @@
         <f>COUNTIF(Hoja2!A:A,C992)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="993" spans="3:8">
+      <c r="L992" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="993" hidden="1" spans="3:12">
       <c r="C993" t="s">
         <v>1098</v>
       </c>
@@ -25037,6 +25349,9 @@
       <c r="H993">
         <f>COUNTIF(Hoja2!A:A,C993)</f>
         <v>1</v>
+      </c>
+      <c r="L993" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="994" hidden="1" spans="1:12">
@@ -25135,7 +25450,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="997" spans="3:8">
+    <row r="997" hidden="1" spans="3:12">
       <c r="C997" t="s">
         <v>1102</v>
       </c>
@@ -25146,8 +25461,11 @@
         <f>COUNTIF(Hoja2!A:A,C997)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="998" spans="3:8">
+      <c r="L997" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="998" hidden="1" spans="3:12">
       <c r="C998" t="s">
         <v>1103</v>
       </c>
@@ -25157,6 +25475,9 @@
       <c r="H998">
         <f>COUNTIF(Hoja2!A:A,C998)</f>
         <v>1</v>
+      </c>
+      <c r="L998" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="999" hidden="1" spans="1:12">
@@ -25193,7 +25514,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1000" spans="3:8">
+    <row r="1000" hidden="1" spans="3:12">
       <c r="C1000" t="s">
         <v>1105</v>
       </c>
@@ -25204,8 +25525,11 @@
         <f>COUNTIF(Hoja2!A:A,C1000)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1001" spans="3:8">
+      <c r="L1000" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1001" hidden="1" spans="3:12">
       <c r="C1001" t="s">
         <v>1106</v>
       </c>
@@ -25216,8 +25540,11 @@
         <f>COUNTIF(Hoja2!A:A,C1001)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1002" spans="3:8">
+      <c r="L1001" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1002" hidden="1" spans="3:12">
       <c r="C1002" t="s">
         <v>1107</v>
       </c>
@@ -25228,8 +25555,11 @@
         <f>COUNTIF(Hoja2!A:A,C1002)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1003" spans="3:8">
+      <c r="L1002" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1003" hidden="1" spans="3:12">
       <c r="C1003" t="s">
         <v>1108</v>
       </c>
@@ -25240,8 +25570,11 @@
         <f>COUNTIF(Hoja2!A:A,C1003)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1004" spans="3:8">
+      <c r="L1003" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1004" hidden="1" spans="3:12">
       <c r="C1004" t="s">
         <v>1109</v>
       </c>
@@ -25252,8 +25585,11 @@
         <f>COUNTIF(Hoja2!A:A,C1004)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1005" spans="3:8">
+      <c r="L1004" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1005" hidden="1" spans="3:12">
       <c r="C1005" t="s">
         <v>1110</v>
       </c>
@@ -25264,8 +25600,11 @@
         <f>COUNTIF(Hoja2!A:A,C1005)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1006" hidden="1" spans="1:9">
+      <c r="L1005" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9">
       <c r="A1006" t="s">
         <v>319</v>
       </c>
@@ -25293,7 +25632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" hidden="1" spans="1:9">
+    <row r="1007" spans="1:9">
       <c r="A1007" t="s">
         <v>300</v>
       </c>
@@ -25321,7 +25660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="3:8">
+    <row r="1008" hidden="1" spans="3:12">
       <c r="C1008" t="s">
         <v>1113</v>
       </c>
@@ -25332,8 +25671,11 @@
         <f>COUNTIF(Hoja2!A:A,C1008)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1009" spans="3:8">
+      <c r="L1008" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1009" hidden="1" spans="3:12">
       <c r="C1009" t="s">
         <v>1114</v>
       </c>
@@ -25344,8 +25686,11 @@
         <f>COUNTIF(Hoja2!A:A,C1009)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1010" spans="3:8">
+      <c r="L1009" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1010" hidden="1" spans="3:12">
       <c r="C1010" t="s">
         <v>1115</v>
       </c>
@@ -25355,6 +25700,9 @@
       <c r="H1010">
         <f>COUNTIF(Hoja2!A:A,C1010)</f>
         <v>1</v>
+      </c>
+      <c r="L1010" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="1011" hidden="1" spans="1:12">
@@ -25391,7 +25739,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1012" spans="3:8">
+    <row r="1012" hidden="1" spans="3:12">
       <c r="C1012" t="s">
         <v>1117</v>
       </c>
@@ -25402,8 +25750,11 @@
         <f>COUNTIF(Hoja2!A:A,C1012)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1013" spans="3:8">
+      <c r="L1012" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1013" hidden="1" spans="3:12">
       <c r="C1013" t="s">
         <v>1118</v>
       </c>
@@ -25414,8 +25765,11 @@
         <f>COUNTIF(Hoja2!A:A,C1013)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1014" spans="3:8">
+      <c r="L1013" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1014" hidden="1" spans="3:12">
       <c r="C1014" t="s">
         <v>1119</v>
       </c>
@@ -25426,8 +25780,11 @@
         <f>COUNTIF(Hoja2!A:A,C1014)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1015" spans="3:8">
+      <c r="L1014" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1015" hidden="1" spans="3:13">
       <c r="C1015" t="s">
         <v>1120</v>
       </c>
@@ -25438,8 +25795,14 @@
         <f>COUNTIF(Hoja2!A:A,C1015)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1016" spans="3:8">
+      <c r="L1015" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1015" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1016" hidden="1" spans="3:13">
       <c r="C1016" t="s">
         <v>1121</v>
       </c>
@@ -25450,8 +25813,14 @@
         <f>COUNTIF(Hoja2!A:A,C1016)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1017" hidden="1" spans="1:9">
+      <c r="L1016" t="s">
+        <v>616</v>
+      </c>
+      <c r="M1016" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9">
       <c r="A1017" t="s">
         <v>300</v>
       </c>
@@ -25479,7 +25848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="3:8">
+    <row r="1018" hidden="1" spans="3:12">
       <c r="C1018" t="s">
         <v>1123</v>
       </c>
@@ -25490,8 +25859,11 @@
         <f>COUNTIF(Hoja2!A:A,C1018)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1019" spans="3:8">
+      <c r="L1018" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1019" hidden="1" spans="3:12">
       <c r="C1019" t="s">
         <v>1124</v>
       </c>
@@ -25502,8 +25874,11 @@
         <f>COUNTIF(Hoja2!A:A,C1019)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1020" spans="3:8">
+      <c r="L1019" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1020" hidden="1" spans="3:12">
       <c r="C1020" t="s">
         <v>1125</v>
       </c>
@@ -25514,8 +25889,11 @@
         <f>COUNTIF(Hoja2!A:A,C1020)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1021" spans="3:8">
+      <c r="L1020" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1021" hidden="1" spans="3:12">
       <c r="C1021" t="s">
         <v>1126</v>
       </c>
@@ -25526,8 +25904,11 @@
         <f>COUNTIF(Hoja2!A:A,C1021)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1022" hidden="1" spans="1:9">
+      <c r="L1021" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9">
       <c r="A1022" t="s">
         <v>12</v>
       </c>
@@ -25558,7 +25939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="3:8">
+    <row r="1023" hidden="1" spans="3:12">
       <c r="C1023" t="s">
         <v>1128</v>
       </c>
@@ -25569,8 +25950,11 @@
         <f>COUNTIF(Hoja2!A:A,C1023)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1024" spans="3:8">
+      <c r="L1023" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1024" hidden="1" spans="3:12">
       <c r="C1024" t="s">
         <v>1129</v>
       </c>
@@ -25581,8 +25965,11 @@
         <f>COUNTIF(Hoja2!A:A,C1024)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1025" spans="3:8">
+      <c r="L1024" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1025" hidden="1" spans="3:12">
       <c r="C1025" t="s">
         <v>1130</v>
       </c>
@@ -25593,8 +25980,11 @@
         <f>COUNTIF(Hoja2!A:A,C1025)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1026" spans="3:8">
+      <c r="L1025" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1026" hidden="1" spans="3:12">
       <c r="C1026" t="s">
         <v>1131</v>
       </c>
@@ -25605,8 +25995,11 @@
         <f>COUNTIF(Hoja2!A:A,C1026)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1027" spans="3:8">
+      <c r="L1026" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1027" hidden="1" spans="3:12">
       <c r="C1027" t="s">
         <v>1132</v>
       </c>
@@ -25617,8 +26010,11 @@
         <f>COUNTIF(Hoja2!A:A,C1027)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1028" spans="3:8">
+      <c r="L1027" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1028" hidden="1" spans="3:12">
       <c r="C1028" t="s">
         <v>1133</v>
       </c>
@@ -25629,8 +26025,11 @@
         <f>COUNTIF(Hoja2!A:A,C1028)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1029" spans="3:8">
+      <c r="L1028" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1029" hidden="1" spans="3:12">
       <c r="C1029" t="s">
         <v>1134</v>
       </c>
@@ -25641,8 +26040,11 @@
         <f>COUNTIF(Hoja2!A:A,C1029)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1030" hidden="1" spans="1:9">
+      <c r="L1029" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9">
       <c r="A1030" t="s">
         <v>300</v>
       </c>
@@ -25673,7 +26075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" spans="3:8">
+    <row r="1031" hidden="1" spans="3:12">
       <c r="C1031" t="s">
         <v>1136</v>
       </c>
@@ -25684,8 +26086,11 @@
         <f>COUNTIF(Hoja2!A:A,C1031)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1032" spans="3:8">
+      <c r="L1031" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1032" hidden="1" spans="3:13">
       <c r="C1032" t="s">
         <v>1137</v>
       </c>
@@ -25696,8 +26101,14 @@
         <f>COUNTIF(Hoja2!A:A,C1032)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1033" hidden="1" spans="1:9">
+      <c r="L1032" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1032" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9">
       <c r="A1033" t="s">
         <v>319</v>
       </c>
@@ -25759,7 +26170,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1035" spans="3:8">
+    <row r="1035" hidden="1" spans="3:12">
       <c r="C1035" t="s">
         <v>1140</v>
       </c>
@@ -25770,8 +26181,11 @@
         <f>COUNTIF(Hoja2!A:A,C1035)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1036" spans="3:8">
+      <c r="L1035" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1036" hidden="1" spans="3:12">
       <c r="C1036" t="s">
         <v>1141</v>
       </c>
@@ -25782,8 +26196,11 @@
         <f>COUNTIF(Hoja2!A:A,C1036)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1037" spans="3:8">
+      <c r="L1036" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1037" hidden="1" spans="3:13">
       <c r="C1037" t="s">
         <v>1142</v>
       </c>
@@ -25794,8 +26211,14 @@
         <f>COUNTIF(Hoja2!A:A,C1037)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1038" spans="3:8">
+      <c r="L1037" t="s">
+        <v>616</v>
+      </c>
+      <c r="M1037" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1038" hidden="1" spans="3:12">
       <c r="C1038" t="s">
         <v>1143</v>
       </c>
@@ -25806,8 +26229,11 @@
         <f>COUNTIF(Hoja2!A:A,C1038)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1039" spans="3:8">
+      <c r="L1038" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1039" hidden="1" spans="3:12">
       <c r="C1039" t="s">
         <v>1144</v>
       </c>
@@ -25817,6 +26243,9 @@
       <c r="H1039">
         <f>COUNTIF(Hoja2!A:A,C1039)</f>
         <v>1</v>
+      </c>
+      <c r="L1039" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="1040" hidden="1" spans="1:12">
@@ -25853,7 +26282,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1041" spans="3:8">
+    <row r="1041" hidden="1" spans="3:12">
       <c r="C1041" t="s">
         <v>1146</v>
       </c>
@@ -25864,8 +26293,11 @@
         <f>COUNTIF(Hoja2!A:A,C1041)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1042" spans="3:8">
+      <c r="L1041" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1042" hidden="1" spans="3:12">
       <c r="C1042" t="s">
         <v>1147</v>
       </c>
@@ -25876,8 +26308,11 @@
         <f>COUNTIF(Hoja2!A:A,C1042)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1043" spans="3:8">
+      <c r="L1042" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1043" hidden="1" spans="3:12">
       <c r="C1043" t="s">
         <v>1148</v>
       </c>
@@ -25888,8 +26323,11 @@
         <f>COUNTIF(Hoja2!A:A,C1043)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1044" spans="3:8">
+      <c r="L1043" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1044" hidden="1" spans="3:12">
       <c r="C1044" t="s">
         <v>1149</v>
       </c>
@@ -25900,8 +26338,11 @@
         <f>COUNTIF(Hoja2!A:A,C1044)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1045" spans="3:8">
+      <c r="L1044" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1045" hidden="1" spans="3:12">
       <c r="C1045" t="s">
         <v>1150</v>
       </c>
@@ -25912,8 +26353,11 @@
         <f>COUNTIF(Hoja2!A:A,C1045)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1046" spans="3:8">
+      <c r="L1045" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1046" hidden="1" spans="3:12">
       <c r="C1046" t="s">
         <v>1151</v>
       </c>
@@ -25924,8 +26368,11 @@
         <f>COUNTIF(Hoja2!A:A,C1046)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1047" spans="3:8">
+      <c r="L1046" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1047" hidden="1" spans="3:12">
       <c r="C1047" t="s">
         <v>1152</v>
       </c>
@@ -25936,8 +26383,11 @@
         <f>COUNTIF(Hoja2!A:A,C1047)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1048" spans="3:8">
+      <c r="L1047" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1048" hidden="1" spans="3:12">
       <c r="C1048" t="s">
         <v>1153</v>
       </c>
@@ -25948,8 +26398,11 @@
         <f>COUNTIF(Hoja2!A:A,C1048)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1049" spans="3:8">
+      <c r="L1048" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1049" hidden="1" spans="3:12">
       <c r="C1049" t="s">
         <v>1154</v>
       </c>
@@ -25960,8 +26413,11 @@
         <f>COUNTIF(Hoja2!A:A,C1049)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1050" spans="3:8">
+      <c r="L1049" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1050" hidden="1" spans="3:12">
       <c r="C1050" t="s">
         <v>1155</v>
       </c>
@@ -25972,8 +26428,11 @@
         <f>COUNTIF(Hoja2!A:A,C1050)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1051" spans="3:8">
+      <c r="L1050" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1051" hidden="1" spans="3:12">
       <c r="C1051" t="s">
         <v>1156</v>
       </c>
@@ -25984,8 +26443,11 @@
         <f>COUNTIF(Hoja2!A:A,C1051)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1052" spans="3:8">
+      <c r="L1051" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1052" hidden="1" spans="3:12">
       <c r="C1052" t="s">
         <v>1157</v>
       </c>
@@ -25996,8 +26458,11 @@
         <f>COUNTIF(Hoja2!A:A,C1052)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1053" spans="3:8">
+      <c r="L1052" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1053" hidden="1" spans="3:12">
       <c r="C1053" t="s">
         <v>1158</v>
       </c>
@@ -26008,8 +26473,11 @@
         <f>COUNTIF(Hoja2!A:A,C1053)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1054" spans="3:8">
+      <c r="L1053" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1054" hidden="1" spans="3:12">
       <c r="C1054" t="s">
         <v>1159</v>
       </c>
@@ -26020,8 +26488,11 @@
         <f>COUNTIF(Hoja2!A:A,C1054)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1055" spans="3:8">
+      <c r="L1054" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1055" hidden="1" spans="3:12">
       <c r="C1055" t="s">
         <v>1160</v>
       </c>
@@ -26032,8 +26503,11 @@
         <f>COUNTIF(Hoja2!A:A,C1055)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1056" spans="3:8">
+      <c r="L1055" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1056" hidden="1" spans="3:12">
       <c r="C1056" t="s">
         <v>1161</v>
       </c>
@@ -26044,8 +26518,11 @@
         <f>COUNTIF(Hoja2!A:A,C1056)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1057" spans="3:8">
+      <c r="L1056" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1057" hidden="1" spans="3:12">
       <c r="C1057" t="s">
         <v>1162</v>
       </c>
@@ -26056,8 +26533,11 @@
         <f>COUNTIF(Hoja2!A:A,C1057)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1058" spans="3:8">
+      <c r="L1057" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1058" hidden="1" spans="3:12">
       <c r="C1058" t="s">
         <v>1163</v>
       </c>
@@ -26068,8 +26548,11 @@
         <f>COUNTIF(Hoja2!A:A,C1058)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1059" hidden="1" spans="1:9">
+      <c r="L1058" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:9">
       <c r="A1059" t="s">
         <v>319</v>
       </c>
@@ -26097,7 +26580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" hidden="1" spans="1:9">
+    <row r="1060" spans="1:9">
       <c r="A1060" t="s">
         <v>319</v>
       </c>
@@ -26125,7 +26608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1061" hidden="1" spans="1:9">
+    <row r="1061" spans="1:9">
       <c r="A1061" t="s">
         <v>319</v>
       </c>
@@ -26153,7 +26636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="3:8">
+    <row r="1062" hidden="1" spans="3:12">
       <c r="C1062" t="s">
         <v>1167</v>
       </c>
@@ -26164,8 +26647,11 @@
         <f>COUNTIF(Hoja2!A:A,C1062)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1063" spans="3:8">
+      <c r="L1062" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1063" hidden="1" spans="3:12">
       <c r="C1063" t="s">
         <v>1168</v>
       </c>
@@ -26176,8 +26662,11 @@
         <f>COUNTIF(Hoja2!A:A,C1063)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1064" spans="3:8">
+      <c r="L1063" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1064" hidden="1" spans="3:12">
       <c r="C1064" t="s">
         <v>1169</v>
       </c>
@@ -26188,8 +26677,11 @@
         <f>COUNTIF(Hoja2!A:A,C1064)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1065" spans="3:8">
+      <c r="L1064" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1065" hidden="1" spans="3:12">
       <c r="C1065" t="s">
         <v>1170</v>
       </c>
@@ -26200,8 +26692,11 @@
         <f>COUNTIF(Hoja2!A:A,C1065)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1066" spans="3:8">
+      <c r="L1065" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1066" hidden="1" spans="3:12">
       <c r="C1066" t="s">
         <v>1171</v>
       </c>
@@ -26212,8 +26707,11 @@
         <f>COUNTIF(Hoja2!A:A,C1066)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1067" spans="3:8">
+      <c r="L1066" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1067" hidden="1" spans="3:12">
       <c r="C1067" t="s">
         <v>1172</v>
       </c>
@@ -26224,8 +26722,11 @@
         <f>COUNTIF(Hoja2!A:A,C1067)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1068" spans="3:8">
+      <c r="L1067" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1068" hidden="1" spans="3:12">
       <c r="C1068" t="s">
         <v>1173</v>
       </c>
@@ -26236,8 +26737,11 @@
         <f>COUNTIF(Hoja2!A:A,C1068)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1069" spans="3:8">
+      <c r="L1068" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1069" hidden="1" spans="3:12">
       <c r="C1069" t="s">
         <v>1174</v>
       </c>
@@ -26248,8 +26752,11 @@
         <f>COUNTIF(Hoja2!A:A,C1069)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1070" spans="3:8">
+      <c r="L1069" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1070" hidden="1" spans="3:12">
       <c r="C1070" t="s">
         <v>1175</v>
       </c>
@@ -26260,8 +26767,11 @@
         <f>COUNTIF(Hoja2!A:A,C1070)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1071" spans="3:8">
+      <c r="L1070" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1071" hidden="1" spans="3:12">
       <c r="C1071" t="s">
         <v>1176</v>
       </c>
@@ -26272,8 +26782,11 @@
         <f>COUNTIF(Hoja2!A:A,C1071)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1072" spans="3:8">
+      <c r="L1071" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1072" hidden="1" spans="3:12">
       <c r="C1072" t="s">
         <v>1177</v>
       </c>
@@ -26284,8 +26797,11 @@
         <f>COUNTIF(Hoja2!A:A,C1072)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1073" spans="3:8">
+      <c r="L1072" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1073" hidden="1" spans="3:12">
       <c r="C1073" t="s">
         <v>1178</v>
       </c>
@@ -26296,8 +26812,11 @@
         <f>COUNTIF(Hoja2!A:A,C1073)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1074" spans="3:8">
+      <c r="L1073" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="1074" hidden="1" spans="3:12">
       <c r="C1074" t="s">
         <v>1179</v>
       </c>
@@ -26308,8 +26827,11 @@
         <f>COUNTIF(Hoja2!A:A,C1074)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1075" spans="3:8">
+      <c r="L1074" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1075" hidden="1" spans="3:12">
       <c r="C1075" t="s">
         <v>1180</v>
       </c>
@@ -26320,8 +26842,11 @@
         <f>COUNTIF(Hoja2!A:A,C1075)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1076" spans="3:8">
+      <c r="L1075" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1076" hidden="1" spans="3:12">
       <c r="C1076" t="s">
         <v>1181</v>
       </c>
@@ -26332,8 +26857,11 @@
         <f>COUNTIF(Hoja2!A:A,C1076)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1077" spans="3:8">
+      <c r="L1076" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1077" hidden="1" spans="3:12">
       <c r="C1077" t="s">
         <v>1182</v>
       </c>
@@ -26344,8 +26872,11 @@
         <f>COUNTIF(Hoja2!A:A,C1077)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1078" spans="3:8">
+      <c r="L1077" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1078" hidden="1" spans="3:12">
       <c r="C1078" t="s">
         <v>1183</v>
       </c>
@@ -26356,8 +26887,11 @@
         <f>COUNTIF(Hoja2!A:A,C1078)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1079" hidden="1" spans="1:9">
+      <c r="L1078" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9">
       <c r="A1079" t="s">
         <v>300</v>
       </c>
@@ -32626,7 +33160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1367" spans="3:8">
+    <row r="1367" hidden="1" spans="3:12">
       <c r="C1367" t="s">
         <v>1481</v>
       </c>
@@ -32636,6 +33170,9 @@
       <c r="H1367">
         <f>COUNTIF(Hoja2!A:A,C1367)</f>
         <v>1</v>
+      </c>
+      <c r="L1367" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="1368" hidden="1" spans="1:12">
@@ -32672,7 +33209,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1369" spans="3:8">
+    <row r="1369" hidden="1" spans="3:12">
       <c r="C1369" t="s">
         <v>1483</v>
       </c>
@@ -32683,8 +33220,11 @@
         <f>COUNTIF(Hoja2!A:A,C1369)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1370" spans="3:8">
+      <c r="L1369" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1370" hidden="1" spans="3:12">
       <c r="C1370" t="s">
         <v>1484</v>
       </c>
@@ -32694,6 +33234,9 @@
       <c r="H1370">
         <f>COUNTIF(Hoja2!A:A,C1370)</f>
         <v>1</v>
+      </c>
+      <c r="L1370" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="1371" hidden="1" spans="1:12">
@@ -32891,7 +33434,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1377" hidden="1" spans="1:9">
+    <row r="1377" spans="1:9">
       <c r="A1377" t="s">
         <v>319</v>
       </c>
@@ -32919,7 +33462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1378" spans="3:8">
+    <row r="1378" hidden="1" spans="3:13">
       <c r="C1378" t="s">
         <v>1491</v>
       </c>
@@ -32930,8 +33473,14 @@
         <f>COUNTIF(Hoja2!A:A,C1378)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1379" spans="3:8">
+      <c r="L1378" t="s">
+        <v>616</v>
+      </c>
+      <c r="M1378" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1379" hidden="1" spans="3:12">
       <c r="C1379" t="s">
         <v>1492</v>
       </c>
@@ -32942,8 +33491,11 @@
         <f>COUNTIF(Hoja2!A:A,C1379)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1380" spans="3:8">
+      <c r="L1379" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1380" hidden="1" spans="3:12">
       <c r="C1380" t="s">
         <v>1493</v>
       </c>
@@ -32954,8 +33506,11 @@
         <f>COUNTIF(Hoja2!A:A,C1380)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1381" spans="3:8">
+      <c r="L1380" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1381" hidden="1" spans="3:12">
       <c r="C1381" t="s">
         <v>1494</v>
       </c>
@@ -32966,8 +33521,11 @@
         <f>COUNTIF(Hoja2!A:A,C1381)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1382" spans="3:8">
+      <c r="L1381" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1382" hidden="1" spans="3:12">
       <c r="C1382" t="s">
         <v>1495</v>
       </c>
@@ -32978,8 +33536,11 @@
         <f>COUNTIF(Hoja2!A:A,C1382)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1383" spans="3:8">
+      <c r="L1382" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1383" hidden="1" spans="3:12">
       <c r="C1383" t="s">
         <v>1496</v>
       </c>
@@ -32989,6 +33550,9 @@
       <c r="H1383">
         <f>COUNTIF(Hoja2!A:A,C1383)</f>
         <v>1</v>
+      </c>
+      <c r="L1383" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="1384" hidden="1" spans="1:12">
@@ -33022,7 +33586,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1385" hidden="1" spans="1:9">
+    <row r="1385" spans="1:9">
       <c r="A1385" t="s">
         <v>12</v>
       </c>
@@ -33050,7 +33614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1386" spans="3:8">
+    <row r="1386" hidden="1" spans="3:13">
       <c r="C1386" t="s">
         <v>1499</v>
       </c>
@@ -33061,8 +33625,14 @@
         <f>COUNTIF(Hoja2!A:A,C1386)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1387" spans="3:8">
+      <c r="L1386" t="s">
+        <v>408</v>
+      </c>
+      <c r="M1386" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1387" hidden="1" spans="3:13">
       <c r="C1387" t="s">
         <v>1500</v>
       </c>
@@ -33073,8 +33643,14 @@
         <f>COUNTIF(Hoja2!A:A,C1387)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1388" spans="3:8">
+      <c r="L1387" t="s">
+        <v>408</v>
+      </c>
+      <c r="M1387" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1388" hidden="1" spans="3:12">
       <c r="C1388" t="s">
         <v>1501</v>
       </c>
@@ -33085,8 +33661,11 @@
         <f>COUNTIF(Hoja2!A:A,C1388)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1389" spans="3:8">
+      <c r="L1388" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1389" hidden="1" spans="3:12">
       <c r="C1389" t="s">
         <v>1502</v>
       </c>
@@ -33097,8 +33676,11 @@
         <f>COUNTIF(Hoja2!A:A,C1389)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1390" spans="3:8">
+      <c r="L1389" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1390" hidden="1" spans="3:12">
       <c r="C1390" t="s">
         <v>1503</v>
       </c>
@@ -33108,6 +33690,9 @@
       <c r="H1390">
         <f>COUNTIF(Hoja2!A:A,C1390)</f>
         <v>1</v>
+      </c>
+      <c r="L1390" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="1391" hidden="1" spans="1:12">
@@ -33144,7 +33729,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1392" spans="3:8">
+    <row r="1392" hidden="1" spans="3:12">
       <c r="C1392" t="s">
         <v>1505</v>
       </c>
@@ -33155,8 +33740,11 @@
         <f>COUNTIF(Hoja2!A:A,C1392)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1393" spans="3:8">
+      <c r="L1392" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1393" hidden="1" spans="3:12">
       <c r="C1393" t="s">
         <v>1506</v>
       </c>
@@ -33166,6 +33754,9 @@
       <c r="H1393">
         <f>COUNTIF(Hoja2!A:A,C1393)</f>
         <v>1</v>
+      </c>
+      <c r="L1393" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="1394" hidden="1" spans="1:12">
@@ -33236,7 +33827,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1396" spans="3:8">
+    <row r="1396" hidden="1" spans="3:12">
       <c r="C1396" t="s">
         <v>1509</v>
       </c>
@@ -33247,8 +33838,11 @@
         <f>COUNTIF(Hoja2!A:A,C1396)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1397" spans="3:8">
+      <c r="L1396" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1397" hidden="1" spans="3:12">
       <c r="C1397" t="s">
         <v>1510</v>
       </c>
@@ -33259,8 +33853,11 @@
         <f>COUNTIF(Hoja2!A:A,C1397)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1398" spans="3:8">
+      <c r="L1397" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1398" hidden="1" spans="3:12">
       <c r="C1398" t="s">
         <v>1511</v>
       </c>
@@ -33271,8 +33868,11 @@
         <f>COUNTIF(Hoja2!A:A,C1398)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1399" spans="3:8">
+      <c r="L1398" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1399" hidden="1" spans="3:12">
       <c r="C1399" t="s">
         <v>1512</v>
       </c>
@@ -33282,6 +33882,9 @@
       <c r="H1399">
         <f>COUNTIF(Hoja2!A:A,C1399)</f>
         <v>1</v>
+      </c>
+      <c r="L1399" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="1400" hidden="1" spans="1:12">
@@ -33386,7 +33989,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="1403" hidden="1" spans="1:9">
+    <row r="1403" spans="1:9">
       <c r="A1403" t="s">
         <v>300</v>
       </c>
@@ -33414,7 +34017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1404" spans="3:8">
+    <row r="1404" hidden="1" spans="3:12">
       <c r="C1404" t="s">
         <v>1517</v>
       </c>
@@ -33425,8 +34028,11 @@
         <f>COUNTIF(Hoja2!A:A,C1404)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1405" spans="3:8">
+      <c r="L1404" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1405" hidden="1" spans="3:12">
       <c r="C1405" t="s">
         <v>1518</v>
       </c>
@@ -33437,8 +34043,11 @@
         <f>COUNTIF(Hoja2!A:A,C1405)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1406" spans="3:8">
+      <c r="L1405" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1406" hidden="1" spans="3:12">
       <c r="C1406" t="s">
         <v>1519</v>
       </c>
@@ -33449,8 +34058,11 @@
         <f>COUNTIF(Hoja2!A:A,C1406)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1407" hidden="1" spans="1:9">
+      <c r="L1406" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:9">
       <c r="A1407" t="s">
         <v>319</v>
       </c>
@@ -33478,7 +34090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1408" spans="3:8">
+    <row r="1408" hidden="1" spans="3:12">
       <c r="C1408" t="s">
         <v>1521</v>
       </c>
@@ -33488,6 +34100,9 @@
       <c r="H1408">
         <f>COUNTIF(Hoja2!A:A,C1408)</f>
         <v>1</v>
+      </c>
+      <c r="L1408" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="1409" hidden="1" spans="1:14">
@@ -33530,7 +34145,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="1410" spans="3:8">
+    <row r="1410" hidden="1" spans="3:12">
       <c r="C1410" t="s">
         <v>1523</v>
       </c>
@@ -33541,8 +34156,11 @@
         <f>COUNTIF(Hoja2!A:A,C1410)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1411" spans="3:8">
+      <c r="L1410" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1411" hidden="1" spans="3:12">
       <c r="C1411" t="s">
         <v>1524</v>
       </c>
@@ -33553,8 +34171,11 @@
         <f>COUNTIF(Hoja2!A:A,C1411)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1412" spans="3:8">
+      <c r="L1411" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1412" hidden="1" spans="3:12">
       <c r="C1412" t="s">
         <v>1525</v>
       </c>
@@ -33565,8 +34186,11 @@
         <f>COUNTIF(Hoja2!A:A,C1412)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1413" spans="3:8">
+      <c r="L1412" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1413" hidden="1" spans="3:12">
       <c r="C1413" t="s">
         <v>1526</v>
       </c>
@@ -33577,8 +34201,11 @@
         <f>COUNTIF(Hoja2!A:A,C1413)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1414" spans="3:8">
+      <c r="L1413" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="1414" hidden="1" spans="3:13">
       <c r="C1414" t="s">
         <v>1527</v>
       </c>
@@ -33589,8 +34216,14 @@
         <f>COUNTIF(Hoja2!A:A,C1414)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="1415" spans="3:8">
+      <c r="L1414" t="s">
+        <v>610</v>
+      </c>
+      <c r="M1414" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1415" hidden="1" spans="3:12">
       <c r="C1415" t="s">
         <v>1528</v>
       </c>
@@ -33601,12 +34234,12 @@
         <f>COUNTIF(Hoja2!A:A,C1415)</f>
         <v>1</v>
       </c>
+      <c r="L1415" t="s">
+        <v>610</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N1415">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="equal" val="StoredProcedure"/>
@@ -33621,14 +34254,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="11">
-      <filters blank="1">
-        <filter val="Analisis"/>
-        <filter val="QuitaReglas"/>
-        <filter val="AgregaFuncionalidad"/>
-        <filter val="CalculoDiferente"/>
-        <filter val="AñadeWhere"/>
-        <filter val="AnalisisSimple"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
     <extLst/>
   </autoFilter>
